--- a/loss.xlsx
+++ b/loss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NanoGPT_mss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C54FF3-414B-4E0C-B678-4045802AC3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C546BA-AEBD-4B1C-BEB5-7DA9FD21AF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>iteration</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,7 +51,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>second_time</t>
+    <t>iters=15000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iters=40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iters=80000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highlights the smallest validation loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +93,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +122,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -104,10 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -160,7 +205,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>tinystory_training_val_loss</a:t>
+              <a:t>loss-15000</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
@@ -206,7 +251,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -229,10 +274,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$42</c:f>
+              <c:f>Sheet1!$A$5:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>250</c:v>
                 </c:pt>
@@ -352,135 +397,255 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10250</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11750</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12250</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12750</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13250</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14250</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14750</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$42</c:f>
+              <c:f>Sheet1!$B$5:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>3.7261000000000002</c:v>
+                  <c:v>3.5164</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1183999999999998</c:v>
+                  <c:v>3.0125999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7704</c:v>
+                  <c:v>2.7099000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5596000000000001</c:v>
+                  <c:v>2.5627</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3954</c:v>
+                  <c:v>2.4506999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2621000000000002</c:v>
+                  <c:v>2.3616000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1650999999999998</c:v>
+                  <c:v>2.3062999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0689000000000002</c:v>
+                  <c:v>2.2589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0019</c:v>
+                  <c:v>2.2976000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9329000000000001</c:v>
+                  <c:v>2.1856</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8774</c:v>
+                  <c:v>2.1621000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8147</c:v>
+                  <c:v>2.1333000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7555000000000001</c:v>
+                  <c:v>2.1061000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.724</c:v>
+                  <c:v>2.0796000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6869000000000001</c:v>
+                  <c:v>2.0592999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6431</c:v>
+                  <c:v>2.0392000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5953999999999999</c:v>
+                  <c:v>2.0268999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5589</c:v>
+                  <c:v>2.0095999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5159</c:v>
+                  <c:v>1.9890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4894000000000001</c:v>
+                  <c:v>1.9716</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.448</c:v>
+                  <c:v>1.9651000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4047000000000001</c:v>
+                  <c:v>1.9599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3755999999999999</c:v>
+                  <c:v>1.9458</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.343</c:v>
+                  <c:v>1.9317</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3182</c:v>
+                  <c:v>1.9106000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2876000000000001</c:v>
+                  <c:v>1.9055</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2599</c:v>
+                  <c:v>1.893</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2385999999999999</c:v>
+                  <c:v>1.8975</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2088000000000001</c:v>
+                  <c:v>1.8747</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1811</c:v>
+                  <c:v>1.8644000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1680999999999999</c:v>
+                  <c:v>1.8581000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1469</c:v>
+                  <c:v>1.8561000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1282000000000001</c:v>
+                  <c:v>1.8468</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1091</c:v>
+                  <c:v>1.8238000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1027</c:v>
+                  <c:v>1.8198000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0824</c:v>
+                  <c:v>1.8127</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.0727</c:v>
+                  <c:v>1.8065</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0589999999999999</c:v>
+                  <c:v>1.794</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0558000000000001</c:v>
+                  <c:v>1.7855000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0449999999999999</c:v>
+                  <c:v>1.7803</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7718</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7592000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7559</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7544999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7295</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7369000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7213000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7185999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7244999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.6993</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7104999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.704</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7035</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7036</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7001999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -488,7 +653,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FEA8-480C-868A-65BFF5AC6E64}"/>
+              <c16:uniqueId val="{00000000-79FB-4B6C-92D2-074E5C8CFCA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -497,7 +662,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -520,10 +685,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$42</c:f>
+              <c:f>Sheet1!$A$5:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>250</c:v>
                 </c:pt>
@@ -643,135 +808,255 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10250</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10750</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11750</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12250</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12750</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13250</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13750</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14250</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14750</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$42</c:f>
+              <c:f>Sheet1!$C$5:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>3.8083999999999998</c:v>
+                  <c:v>3.5133999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2465000000000002</c:v>
+                  <c:v>3.0101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9064000000000001</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7195999999999998</c:v>
+                  <c:v>2.5567000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5783</c:v>
+                  <c:v>2.4525999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4630999999999998</c:v>
+                  <c:v>2.3633999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3815</c:v>
+                  <c:v>2.3189000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3144</c:v>
+                  <c:v>2.2547999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2682000000000002</c:v>
+                  <c:v>2.2176999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2141000000000002</c:v>
+                  <c:v>2.1985999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1846999999999999</c:v>
+                  <c:v>2.1690999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1440000000000001</c:v>
+                  <c:v>2.1385000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1156000000000001</c:v>
+                  <c:v>2.1040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0949</c:v>
+                  <c:v>2.0869</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0859999999999999</c:v>
+                  <c:v>2.0674999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0737000000000001</c:v>
+                  <c:v>2.044</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0417999999999998</c:v>
+                  <c:v>2.0341</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0394000000000001</c:v>
+                  <c:v>2.0150999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0335999999999999</c:v>
+                  <c:v>1.9963</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0253999999999999</c:v>
+                  <c:v>1.978</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0185</c:v>
+                  <c:v>1.9734</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0196999999999998</c:v>
+                  <c:v>1.9610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.0047999999999999</c:v>
+                  <c:v>1.9500999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0057</c:v>
+                  <c:v>1.9482999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0118999999999998</c:v>
+                  <c:v>1.9247000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9981</c:v>
+                  <c:v>1.9142999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0141</c:v>
+                  <c:v>1.9097999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0026999999999999</c:v>
+                  <c:v>1.9014</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0093000000000001</c:v>
+                  <c:v>1.8889</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0076000000000001</c:v>
+                  <c:v>1.8724000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0097999999999998</c:v>
+                  <c:v>1.8657999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0165999999999999</c:v>
+                  <c:v>1.8606</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0265</c:v>
+                  <c:v>1.8626</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.0209999999999999</c:v>
+                  <c:v>1.8407</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.0192000000000001</c:v>
+                  <c:v>1.831</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.0217000000000001</c:v>
+                  <c:v>1.8309</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.0217999999999998</c:v>
+                  <c:v>1.8125</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0318000000000001</c:v>
+                  <c:v>1.8032999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0285000000000002</c:v>
+                  <c:v>1.8046</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0306000000000002</c:v>
+                  <c:v>1.7929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.7918000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7763</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7822</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7413000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7542</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7552000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7451000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.7447999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7343999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7262999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7262</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.7205999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.7221</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7204999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7196</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7121</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7166999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7126999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +1064,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FEA8-480C-868A-65BFF5AC6E64}"/>
+              <c16:uniqueId val="{00000001-79FB-4B6C-92D2-074E5C8CFCA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -792,16 +1077,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2088470975"/>
-        <c:axId val="2088472895"/>
+        <c:axId val="1267154800"/>
+        <c:axId val="1267168720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088470975"/>
+        <c:axId val="1267154800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>interation</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -839,7 +1180,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088472895"/>
+        <c:crossAx val="1267168720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -847,7 +1188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088472895"/>
+        <c:axId val="1267168720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,6 +1208,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>loss</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -898,7 +1295,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088470975"/>
+        <c:crossAx val="1267154800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -993,6 +1390,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>loss-40000</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1031,6 +1454,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1045,378 +1479,618 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$62</c:f>
+              <c:f>Sheet1!$E$5:$E$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>750</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1250</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1500</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1750</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2250</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2500</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2750</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3000</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3250</c:v>
+                  <c:v>5200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3500</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3750</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4250</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4500</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4750</c:v>
+                  <c:v>7600</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5250</c:v>
+                  <c:v>8400</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5500</c:v>
+                  <c:v>8800</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5750</c:v>
+                  <c:v>9200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6000</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6250</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6500</c:v>
+                  <c:v>10400</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6750</c:v>
+                  <c:v>10800</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7000</c:v>
+                  <c:v>11200</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7250</c:v>
+                  <c:v>11600</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7500</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7750</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8000</c:v>
+                  <c:v>12800</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8250</c:v>
+                  <c:v>13200</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8500</c:v>
+                  <c:v>13600</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8750</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9000</c:v>
+                  <c:v>14400</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9250</c:v>
+                  <c:v>14800</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9500</c:v>
+                  <c:v>15200</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9750</c:v>
+                  <c:v>15600</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10000</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10250</c:v>
+                  <c:v>16400</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10500</c:v>
+                  <c:v>16800</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10750</c:v>
+                  <c:v>17200</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11000</c:v>
+                  <c:v>17600</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11250</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11500</c:v>
+                  <c:v>18400</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11750</c:v>
+                  <c:v>18800</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12000</c:v>
+                  <c:v>19200</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12250</c:v>
+                  <c:v>19600</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12500</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>12750</c:v>
+                  <c:v>20400</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>13000</c:v>
+                  <c:v>20800</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13250</c:v>
+                  <c:v>21200</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13500</c:v>
+                  <c:v>21600</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13750</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14000</c:v>
+                  <c:v>22400</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14250</c:v>
+                  <c:v>22800</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14500</c:v>
+                  <c:v>23200</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>14750</c:v>
+                  <c:v>23600</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>15000</c:v>
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24800</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26800</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27200</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27600</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28400</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28800</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>29600</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30400</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31200</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32400</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32800</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33200</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33600</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>34400</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>34800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35200</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>35600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>36400</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36800</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>37600</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>38400</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>38800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>39200</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>39600</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$62</c:f>
+              <c:f>Sheet1!$F$5:$F$104</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_ </c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>3.5164</c:v>
+                  <c:v>3.1566000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0125999999999999</c:v>
+                  <c:v>2.6905999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7099000000000002</c:v>
+                  <c:v>2.4744999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5627</c:v>
+                  <c:v>2.3450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4506999999999999</c:v>
+                  <c:v>2.2706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3616000000000001</c:v>
+                  <c:v>2.2000999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3062999999999998</c:v>
+                  <c:v>2.1566000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2589999999999999</c:v>
+                  <c:v>2.1147999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2976000000000001</c:v>
+                  <c:v>2.0865</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1856</c:v>
+                  <c:v>2.0528</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1621000000000001</c:v>
+                  <c:v>2.0270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1333000000000002</c:v>
+                  <c:v>2.0154000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1061000000000001</c:v>
+                  <c:v>1.9863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0796000000000001</c:v>
+                  <c:v>1.9829000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0592999999999999</c:v>
+                  <c:v>1.9555</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0392000000000001</c:v>
+                  <c:v>1.9420999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0268999999999999</c:v>
+                  <c:v>1.9336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0095999999999998</c:v>
+                  <c:v>1.9155</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9890000000000001</c:v>
+                  <c:v>1.9101999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9716</c:v>
+                  <c:v>1.897</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9651000000000001</c:v>
+                  <c:v>1.8876999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9599</c:v>
+                  <c:v>1.8787</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9458</c:v>
+                  <c:v>1.8606</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9317</c:v>
+                  <c:v>1.859</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9106000000000001</c:v>
+                  <c:v>1.8646</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9055</c:v>
+                  <c:v>1.8527</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.893</c:v>
+                  <c:v>1.8433999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.8975</c:v>
+                  <c:v>1.8332999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.8747</c:v>
+                  <c:v>1.827</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.8644000000000001</c:v>
+                  <c:v>1.8185</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.8581000000000001</c:v>
+                  <c:v>1.8110999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.8561000000000001</c:v>
+                  <c:v>1.8049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.8468</c:v>
+                  <c:v>1.7936000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.8238000000000001</c:v>
+                  <c:v>1.7990999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.8198000000000001</c:v>
+                  <c:v>1.784</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.8127</c:v>
+                  <c:v>1.7888999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.8065</c:v>
+                  <c:v>1.7856000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.794</c:v>
+                  <c:v>1.7788999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7855000000000001</c:v>
+                  <c:v>1.7664</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.7803</c:v>
+                  <c:v>1.7641</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.7821</c:v>
+                  <c:v>1.7618</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.7718</c:v>
+                  <c:v>1.7653000000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7592000000000001</c:v>
+                  <c:v>1.758</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.7559</c:v>
+                  <c:v>1.7394000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.7544999999999999</c:v>
+                  <c:v>1.7423999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7405999999999999</c:v>
+                  <c:v>1.7407999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.7405999999999999</c:v>
+                  <c:v>1.7369000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.7295</c:v>
+                  <c:v>1.7336</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.7369000000000001</c:v>
+                  <c:v>1.7202</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.7213000000000001</c:v>
+                  <c:v>1.7219</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.7230000000000001</c:v>
+                  <c:v>1.7123999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.7185999999999999</c:v>
+                  <c:v>1.7052</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7244999999999999</c:v>
+                  <c:v>1.6994</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.6993</c:v>
+                  <c:v>1.704</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.7104999999999999</c:v>
+                  <c:v>1.7028000000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.704</c:v>
+                  <c:v>1.6912</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.7035</c:v>
+                  <c:v>1.6837</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.7036</c:v>
+                  <c:v>1.6835</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.7001999999999999</c:v>
+                  <c:v>1.6798</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.6938</c:v>
+                  <c:v>1.6751</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6760999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6633</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6689000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6560999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6556999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6469</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6483000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6456</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6536999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6383000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6534</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.6364000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6291</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.6283000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6225000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6129</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.6136999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6182000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6145</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6057999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5952</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.591</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5903</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5918000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5845</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5853999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5859000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5759000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5791999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5839000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5750999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5805</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5788</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5699000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.581</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5742</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5692999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5667</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.5748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,13 +2098,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B3F-4638-8771-536902C78C51}"/>
+              <c16:uniqueId val="{00000000-68B3-4D68-A601-3D9DB3655E76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1445,378 +2130,618 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$62</c:f>
+              <c:f>Sheet1!$E$5:$E$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>750</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1250</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1500</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1750</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2000</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2250</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2500</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2750</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3000</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3250</c:v>
+                  <c:v>5200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3500</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3750</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4000</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4250</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4500</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4750</c:v>
+                  <c:v>7600</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5250</c:v>
+                  <c:v>8400</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5500</c:v>
+                  <c:v>8800</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5750</c:v>
+                  <c:v>9200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6000</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6250</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6500</c:v>
+                  <c:v>10400</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6750</c:v>
+                  <c:v>10800</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7000</c:v>
+                  <c:v>11200</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7250</c:v>
+                  <c:v>11600</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7500</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7750</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8000</c:v>
+                  <c:v>12800</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8250</c:v>
+                  <c:v>13200</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8500</c:v>
+                  <c:v>13600</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8750</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9000</c:v>
+                  <c:v>14400</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9250</c:v>
+                  <c:v>14800</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9500</c:v>
+                  <c:v>15200</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9750</c:v>
+                  <c:v>15600</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10000</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10250</c:v>
+                  <c:v>16400</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10500</c:v>
+                  <c:v>16800</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10750</c:v>
+                  <c:v>17200</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11000</c:v>
+                  <c:v>17600</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11250</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11500</c:v>
+                  <c:v>18400</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11750</c:v>
+                  <c:v>18800</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12000</c:v>
+                  <c:v>19200</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12250</c:v>
+                  <c:v>19600</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12500</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>12750</c:v>
+                  <c:v>20400</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>13000</c:v>
+                  <c:v>20800</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13250</c:v>
+                  <c:v>21200</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13500</c:v>
+                  <c:v>21600</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13750</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14000</c:v>
+                  <c:v>22400</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14250</c:v>
+                  <c:v>22800</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14500</c:v>
+                  <c:v>23200</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>14750</c:v>
+                  <c:v>23600</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>15000</c:v>
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24800</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25200</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>26800</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27200</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27600</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28400</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28800</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29200</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>29600</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30400</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30800</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31200</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32400</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32800</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33200</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33600</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>34400</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>34800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35200</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>35600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>36400</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>36800</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>37600</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>38400</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>38800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>39200</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>39600</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$62</c:f>
+              <c:f>Sheet1!$G$5:$G$104</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_ </c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>3.5133999999999999</c:v>
+                  <c:v>3.1547999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0101</c:v>
+                  <c:v>2.6854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.72</c:v>
+                  <c:v>2.4723000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5567000000000002</c:v>
+                  <c:v>2.3445999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4525999999999999</c:v>
+                  <c:v>2.274</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3633999999999999</c:v>
+                  <c:v>2.2101999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3189000000000002</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2547999999999999</c:v>
+                  <c:v>2.1196000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2176999999999998</c:v>
+                  <c:v>2.0950000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1985999999999999</c:v>
+                  <c:v>2.0589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1690999999999998</c:v>
+                  <c:v>2.0388999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1385000000000001</c:v>
+                  <c:v>2.0141</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1040000000000001</c:v>
+                  <c:v>1.9941</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0869</c:v>
+                  <c:v>1.9928999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0674999999999999</c:v>
+                  <c:v>1.9629000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.044</c:v>
+                  <c:v>1.9508000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0341</c:v>
+                  <c:v>1.9353</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0150999999999999</c:v>
+                  <c:v>1.9195</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9963</c:v>
+                  <c:v>1.9189000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.978</c:v>
+                  <c:v>1.9165000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9734</c:v>
+                  <c:v>1.8967000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9610000000000001</c:v>
+                  <c:v>1.8937999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9500999999999999</c:v>
+                  <c:v>1.8844000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9482999999999999</c:v>
+                  <c:v>1.8711</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9247000000000001</c:v>
+                  <c:v>1.8673</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9142999999999999</c:v>
+                  <c:v>1.8593999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.9097999999999999</c:v>
+                  <c:v>1.8512</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.9014</c:v>
+                  <c:v>1.8445</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.8889</c:v>
+                  <c:v>1.8307</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.8724000000000001</c:v>
+                  <c:v>1.8251999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.8657999999999999</c:v>
+                  <c:v>1.8162</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.8606</c:v>
+                  <c:v>1.8207</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.8626</c:v>
+                  <c:v>1.8085</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.8407</c:v>
+                  <c:v>1.8066</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.831</c:v>
+                  <c:v>1.8080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.8309</c:v>
+                  <c:v>1.794</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.8125</c:v>
+                  <c:v>1.7948</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.8032999999999999</c:v>
+                  <c:v>1.7936000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.8046</c:v>
+                  <c:v>1.7932999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.7929999999999999</c:v>
+                  <c:v>1.7821</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.7918000000000001</c:v>
+                  <c:v>1.7768999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.7763</c:v>
+                  <c:v>1.7732000000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7822</c:v>
+                  <c:v>1.7667999999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.7729999999999999</c:v>
+                  <c:v>1.7635000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.7569999999999999</c:v>
+                  <c:v>1.7476</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7413000000000001</c:v>
+                  <c:v>1.7524999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.7542</c:v>
+                  <c:v>1.7501</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.7552000000000001</c:v>
+                  <c:v>1.7465999999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.7451000000000001</c:v>
+                  <c:v>1.7323999999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.7447999999999999</c:v>
+                  <c:v>1.742</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.7343999999999999</c:v>
+                  <c:v>1.7321</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.7262999999999999</c:v>
+                  <c:v>1.7270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.7262</c:v>
+                  <c:v>1.7299</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.7205999999999999</c:v>
+                  <c:v>1.7296</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.7221</c:v>
+                  <c:v>1.7218</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.7204999999999999</c:v>
+                  <c:v>1.7145999999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.7196</c:v>
+                  <c:v>1.7032</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.7121</c:v>
+                  <c:v>1.6981999999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.7166999999999999</c:v>
+                  <c:v>1.6916</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.7126999999999999</c:v>
+                  <c:v>1.6981999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6887000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6917</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6797</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.6701999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.6688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6741999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6644000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.6657</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6533</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6557999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.6559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6455</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.6448</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.6385000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.6341000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.6355</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6386000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.633</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6243000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6244000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6234</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.619</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6166</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.6183000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.6145</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6073999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.6095999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5982000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6044</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.6048</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5949</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5958000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5933999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5888</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.5955999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5931</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5907</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5904</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.5911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,7 +2749,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1B3F-4638-8771-536902C78C51}"/>
+              <c16:uniqueId val="{00000001-68B3-4D68-A601-3D9DB3655E76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1837,16 +2762,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2088047504"/>
-        <c:axId val="2088058064"/>
+        <c:axId val="332750896"/>
+        <c:axId val="332739856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088047504"/>
+        <c:axId val="332750896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>interation</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1884,7 +2865,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088058064"/>
+        <c:crossAx val="332739856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1892,7 +2873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088058064"/>
+        <c:axId val="332739856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,6 +2893,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>loss</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1943,7 +2980,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088047504"/>
+        <c:crossAx val="332750896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2038,6 +3075,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>loss-80000</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2076,6 +3139,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2090,7 +3164,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$X$3:$X$82</c:f>
+              <c:f>Sheet1!$I$5:$I$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
@@ -2339,7 +3413,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$3:$Y$82</c:f>
+              <c:f>Sheet1!$J$5:$J$84</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="80"/>
@@ -2589,13 +3663,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A708-4E0B-87C5-A81906282BCA}"/>
+              <c16:uniqueId val="{00000000-3523-4032-89FF-719CC834E7F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2610,7 +3695,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$X$3:$X$82</c:f>
+              <c:f>Sheet1!$I$5:$I$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
@@ -2859,7 +3944,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$3:$Z$82</c:f>
+              <c:f>Sheet1!$K$5:$K$84</c:f>
               <c:numCache>
                 <c:formatCode>0.0000_ </c:formatCode>
                 <c:ptCount val="80"/>
@@ -3109,7 +4194,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A708-4E0B-87C5-A81906282BCA}"/>
+              <c16:uniqueId val="{00000001-3523-4032-89FF-719CC834E7F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3122,16 +4207,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1412004832"/>
-        <c:axId val="1411996672"/>
+        <c:axId val="329859344"/>
+        <c:axId val="329871824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1412004832"/>
+        <c:axId val="329859344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>interation</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3169,7 +4310,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1411996672"/>
+        <c:crossAx val="329871824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3177,7 +4318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1411996672"/>
+        <c:axId val="329871824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,6 +4338,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>loss</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3228,7 +4425,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1412004832"/>
+        <c:crossAx val="329859344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4980,23 +6177,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>614362</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63CF511-1AA2-944B-9AF9-99252DEA7E88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B2DADF-0355-5766-AF07-1D9C91347F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5016,23 +6213,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40482</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2E7BE1-C350-80D3-1D1F-D2B9A20684BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282926B8-0C33-7E14-FE1D-D549A1F891A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5052,23 +6249,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>73816</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
+        <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAC22B8-FA4E-EDD8-1EC9-2002BD720B75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C84F92-3A2B-71DA-AF03-E465A468C935}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5352,3715 +6549,2472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE102"/>
+  <dimension ref="A2:P104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="S106" sqref="S106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" customWidth="1"/>
+    <col min="13" max="14" width="6.59765625" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="b">
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>0</v>
       </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" t="b">
+      <c r="B4" s="1">
+        <v>10.920999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10.9209</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="S1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" t="b">
+      <c r="F4" s="1">
+        <v>10.920999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10.9209</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="X1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10.989599999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10.988899999999999</v>
-      </c>
-      <c r="M2">
+      <c r="J4" s="1">
+        <v>10.920999999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10.9209</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.5164</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.5133999999999999</v>
+      </c>
+      <c r="E5">
+        <v>400</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.1566000000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.1547999999999998</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.5676000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.5728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.0125999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.0101</v>
+      </c>
+      <c r="E6">
+        <v>800</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.6905999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.6854</v>
+      </c>
+      <c r="I6">
+        <v>2000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.2642000000000002</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.2709999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>750</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.7099000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="E7">
+        <v>1200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.4744999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.4723000000000002</v>
+      </c>
+      <c r="I7">
+        <v>3000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.1406999999999998</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.1486000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.5627</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.5567000000000002</v>
+      </c>
+      <c r="E8">
+        <v>1600</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.3445999999999998</v>
+      </c>
+      <c r="I8">
+        <v>4000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.0638999999999998</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.0697000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1250</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.4506999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.4525999999999999</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.2706</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.274</v>
+      </c>
+      <c r="I9">
+        <v>5000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.0024999999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.0158999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1500</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.3616000000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.3633999999999999</v>
+      </c>
+      <c r="E10">
+        <v>2400</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.2000999999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.2101999999999999</v>
+      </c>
+      <c r="I10">
+        <v>6000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.9662999999999999</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.9737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1750</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.3062999999999998</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.3189000000000002</v>
+      </c>
+      <c r="E11">
+        <v>2800</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.1566000000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="I11">
+        <v>7000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.9305000000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.9381999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.2589999999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.2547999999999999</v>
+      </c>
+      <c r="E12">
+        <v>3200</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.1147999999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.1196000000000002</v>
+      </c>
+      <c r="I12">
+        <v>8000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.9107000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.9220999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2250</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.2976000000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.2176999999999998</v>
+      </c>
+      <c r="E13">
+        <v>3600</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.0865</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="I13">
+        <v>9000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.8847</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.9033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>2500</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.1856</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.1985999999999999</v>
+      </c>
+      <c r="E14">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.0528</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.0589</v>
+      </c>
+      <c r="I14">
+        <v>10000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.8666</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.8795999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>2750</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.1621000000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.1690999999999998</v>
+      </c>
+      <c r="E15">
+        <v>4400</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.0388999999999999</v>
+      </c>
+      <c r="I15">
+        <v>11000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.8552999999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.8649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>3000</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.1333000000000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.1385000000000001</v>
+      </c>
+      <c r="E16">
+        <v>4800</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.0154000000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.0141</v>
+      </c>
+      <c r="I16">
+        <v>12000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.8383</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1.8498000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3250</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.1061000000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="E17">
+        <v>5200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.9863</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.9941</v>
+      </c>
+      <c r="I17">
+        <v>13000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.8381000000000001</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.8461000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>3500</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.0796000000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.0869</v>
+      </c>
+      <c r="E18">
+        <v>5600</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.9829000000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.9928999999999999</v>
+      </c>
+      <c r="I18">
+        <v>14000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.8254999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>3750</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.0592999999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.0674999999999999</v>
+      </c>
+      <c r="E19">
+        <v>6000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.9555</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.9629000000000001</v>
+      </c>
+      <c r="I19">
         <v>15000</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>10.920999999999999</v>
-      </c>
-      <c r="P2" s="1">
-        <v>10.9209</v>
-      </c>
-      <c r="R2">
+      <c r="J19" s="1">
+        <v>1.8111999999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.8298000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>4000</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.0392000000000001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.044</v>
+      </c>
+      <c r="E20">
+        <v>6400</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.9420999999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.9508000000000001</v>
+      </c>
+      <c r="I20">
+        <v>16000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.8015000000000001</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.8127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>4250</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.0268999999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.0341</v>
+      </c>
+      <c r="E21">
+        <v>6800</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.9336</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.9353</v>
+      </c>
+      <c r="I21">
+        <v>17000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.792</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.8022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>4500</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.0095999999999998</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.0150999999999999</v>
+      </c>
+      <c r="E22">
+        <v>7200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.9155</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.9195</v>
+      </c>
+      <c r="I22">
+        <v>18000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1.7857000000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.8007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>4750</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.9963</v>
+      </c>
+      <c r="E23">
+        <v>7600</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.9101999999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.9189000000000001</v>
+      </c>
+      <c r="I23">
+        <v>19000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.7789999999999999</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.7861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>5000</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.9716</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.978</v>
+      </c>
+      <c r="E24">
+        <v>8000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.897</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.9165000000000001</v>
+      </c>
+      <c r="I24">
+        <v>20000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.7606999999999999</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.7864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>5250</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.9651000000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.9734</v>
+      </c>
+      <c r="E25">
+        <v>8400</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.8876999999999999</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.8967000000000001</v>
+      </c>
+      <c r="I25">
+        <v>21000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1.7591000000000001</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.7785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>5500</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.9599</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="E26">
+        <v>8800</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.8787</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.8937999999999999</v>
+      </c>
+      <c r="I26">
+        <v>22000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1.7726999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>5750</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.9458</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.9500999999999999</v>
+      </c>
+      <c r="E27">
+        <v>9200</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.8606</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.8844000000000001</v>
+      </c>
+      <c r="I27">
+        <v>23000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1.7453000000000001</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1.7688999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>6000</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.9317</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.9482999999999999</v>
+      </c>
+      <c r="E28">
+        <v>9600</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.859</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.8711</v>
+      </c>
+      <c r="I28">
+        <v>24000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1.7513000000000001</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1.7607999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>6250</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.9106000000000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.9247000000000001</v>
+      </c>
+      <c r="E29">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.8646</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.8673</v>
+      </c>
+      <c r="I29">
+        <v>25000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1.7323</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1.7486999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>6500</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.9055</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.9142999999999999</v>
+      </c>
+      <c r="E30">
+        <v>10400</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.8527</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.8593999999999999</v>
+      </c>
+      <c r="I30">
+        <v>26000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.7323999999999999</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1.7508999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>6750</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.893</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.9097999999999999</v>
+      </c>
+      <c r="E31">
+        <v>10800</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.8433999999999999</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.8512</v>
+      </c>
+      <c r="I31">
+        <v>27000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.7316</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1.7468999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>7000</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.8975</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.9014</v>
+      </c>
+      <c r="E32">
+        <v>11200</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.8332999999999999</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.8445</v>
+      </c>
+      <c r="I32">
+        <v>28000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.7222999999999999</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1.7333000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>7250</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.8747</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.8889</v>
+      </c>
+      <c r="E33">
+        <v>11600</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.827</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1.8307</v>
+      </c>
+      <c r="I33">
+        <v>29000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1.7157</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1.7383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>7500</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.8644000000000001</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.8724000000000001</v>
+      </c>
+      <c r="E34">
+        <v>12000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.8185</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.8251999999999999</v>
+      </c>
+      <c r="I34">
+        <v>30000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1.7041999999999999</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1.7267999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>7750</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.8581000000000001</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.8657999999999999</v>
+      </c>
+      <c r="E35">
+        <v>12400</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.8110999999999999</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1.8162</v>
+      </c>
+      <c r="I35">
+        <v>31000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1.7075</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1.7239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>8000</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.8561000000000001</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.8606</v>
+      </c>
+      <c r="E36">
+        <v>12800</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.8207</v>
+      </c>
+      <c r="I36">
+        <v>32000</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.6996</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1.7231000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>8250</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.8468</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.8626</v>
+      </c>
+      <c r="E37">
+        <v>13200</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.7936000000000001</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.8085</v>
+      </c>
+      <c r="I37">
+        <v>33000</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1.6917</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1.7146999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>8500</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.8238000000000001</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.8407</v>
+      </c>
+      <c r="E38">
+        <v>13600</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.7990999999999999</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.8066</v>
+      </c>
+      <c r="I38">
+        <v>34000</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1.6979</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1.7195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>8750</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.8198000000000001</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.831</v>
+      </c>
+      <c r="E39">
+        <v>14000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.784</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="I39">
+        <v>35000</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1.6887000000000001</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1.7043999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>9000</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.8127</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.8309</v>
+      </c>
+      <c r="E40">
+        <v>14400</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.7888999999999999</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1.794</v>
+      </c>
+      <c r="I40">
+        <v>36000</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1.6855</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1.6911</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>9250</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.8065</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.8125</v>
+      </c>
+      <c r="E41">
+        <v>14800</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.7856000000000001</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.7948</v>
+      </c>
+      <c r="I41">
+        <v>37000</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1.6777</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1.6940999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>9500</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.794</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.8032999999999999</v>
+      </c>
+      <c r="E42">
+        <v>15200</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.7788999999999999</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1.7936000000000001</v>
+      </c>
+      <c r="I42">
+        <v>38000</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1.6736</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1.6946000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>9750</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.7855000000000001</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.8046</v>
+      </c>
+      <c r="E43">
+        <v>15600</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1.7664</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1.7932999999999999</v>
+      </c>
+      <c r="I43">
+        <v>39000</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.6684000000000001</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1.6832</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>10000</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.7803</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="E44">
+        <v>16000</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1.7641</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1.7821</v>
+      </c>
+      <c r="I44">
         <v>40000</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>10.920999999999999</v>
-      </c>
-      <c r="U2" s="1">
-        <v>10.9209</v>
-      </c>
-      <c r="W2">
+      <c r="J44" s="1">
+        <v>1.6636</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1.6773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>10250</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.7821</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.7918000000000001</v>
+      </c>
+      <c r="E45">
+        <v>16400</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.7618</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1.7768999999999999</v>
+      </c>
+      <c r="I45">
+        <v>41000</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1.6565000000000001</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1.6773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>10500</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.7718</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.7763</v>
+      </c>
+      <c r="E46">
+        <v>16800</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.7653000000000001</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1.7732000000000001</v>
+      </c>
+      <c r="I46">
+        <v>42000</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1.6556999999999999</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1.6720999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>10750</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.7592000000000001</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.7822</v>
+      </c>
+      <c r="E47">
+        <v>17200</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.758</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.7667999999999999</v>
+      </c>
+      <c r="I47">
+        <v>43000</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1.6494</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1.6624000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>11000</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.7559</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="E48">
+        <v>17600</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1.7394000000000001</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.7635000000000001</v>
+      </c>
+      <c r="I48">
+        <v>44000</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1.6433</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1.6631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>11250</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.7544999999999999</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="E49">
+        <v>18000</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1.7423999999999999</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1.7476</v>
+      </c>
+      <c r="I49">
+        <v>45000</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1.6369</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1.6581999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>11500</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.7405999999999999</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.7413000000000001</v>
+      </c>
+      <c r="E50">
+        <v>18400</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.7407999999999999</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1.7524999999999999</v>
+      </c>
+      <c r="I50">
+        <v>46000</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1.6400999999999999</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>11750</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.7405999999999999</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.7542</v>
+      </c>
+      <c r="E51">
+        <v>18800</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.7369000000000001</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.7501</v>
+      </c>
+      <c r="I51">
+        <v>47000</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1.6342000000000001</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1.6503000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>12000</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1.7295</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.7552000000000001</v>
+      </c>
+      <c r="E52">
+        <v>19200</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.7336</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1.7465999999999999</v>
+      </c>
+      <c r="I52">
+        <v>48000</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1.6234999999999999</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1.6477999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>12250</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1.7369000000000001</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.7451000000000001</v>
+      </c>
+      <c r="E53">
+        <v>19600</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1.7202</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1.7323999999999999</v>
+      </c>
+      <c r="I53">
+        <v>49000</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1.6174999999999999</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1.6392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>12500</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.7213000000000001</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.7447999999999999</v>
+      </c>
+      <c r="E54">
+        <v>20000</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1.7219</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1.742</v>
+      </c>
+      <c r="I54">
+        <v>50000</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1.6162000000000001</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1.6325000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>12750</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.7343999999999999</v>
+      </c>
+      <c r="E55">
+        <v>20400</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.7123999999999999</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1.7321</v>
+      </c>
+      <c r="I55">
+        <v>51000</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1.609</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1.6353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>13000</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.7185999999999999</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.7262999999999999</v>
+      </c>
+      <c r="E56">
+        <v>20800</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1.7052</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="I56">
+        <v>52000</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1.6086</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1.6284000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>13250</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.7244999999999999</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.7262</v>
+      </c>
+      <c r="E57">
+        <v>21200</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1.6994</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1.7299</v>
+      </c>
+      <c r="I57">
+        <v>53000</v>
+      </c>
+      <c r="J57" s="1">
+        <v>1.6046</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1.6212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>13500</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1.6993</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.7205999999999999</v>
+      </c>
+      <c r="E58">
+        <v>21600</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1.704</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.7296</v>
+      </c>
+      <c r="I58">
+        <v>54000</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1.5961000000000001</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1.6221000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>13750</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.7104999999999999</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.7221</v>
+      </c>
+      <c r="E59">
+        <v>22000</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1.7028000000000001</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1.7218</v>
+      </c>
+      <c r="I59">
+        <v>55000</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1.5952999999999999</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1.6155999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>14000</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1.704</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.7204999999999999</v>
+      </c>
+      <c r="E60">
+        <v>22400</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.6912</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.7145999999999999</v>
+      </c>
+      <c r="I60">
+        <v>56000</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1.587</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1.6094999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>14250</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1.7035</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.7196</v>
+      </c>
+      <c r="E61">
+        <v>22800</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1.6837</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1.7032</v>
+      </c>
+      <c r="I61">
+        <v>57000</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1.5819000000000001</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1.5966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>14500</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.7036</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1.7121</v>
+      </c>
+      <c r="E62">
+        <v>23200</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1.6835</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1.6981999999999999</v>
+      </c>
+      <c r="I62">
+        <v>58000</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1.5736000000000001</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1.6023000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>14750</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1.7001999999999999</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.7166999999999999</v>
+      </c>
+      <c r="E63">
+        <v>23600</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1.6798</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1.6916</v>
+      </c>
+      <c r="I63">
+        <v>59000</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1.5734999999999999</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1.5946</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>15000</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1.6938</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.7126999999999999</v>
+      </c>
+      <c r="E64">
+        <v>24000</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.6751</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1.6981999999999999</v>
+      </c>
+      <c r="I64">
+        <v>60000</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1.5725</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1.5971</v>
+      </c>
+    </row>
+    <row r="65" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E65">
+        <v>24400</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1.6760999999999999</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1.6887000000000001</v>
+      </c>
+      <c r="I65">
+        <v>61000</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1.5677000000000001</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1.5839000000000001</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65" s="5"/>
+      <c r="O65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E66">
+        <v>24800</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1.6633</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1.6917</v>
+      </c>
+      <c r="I66">
+        <v>62000</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1.5632999999999999</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1.5804</v>
+      </c>
+    </row>
+    <row r="67" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E67">
+        <v>25200</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1.6689000000000001</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1.675</v>
+      </c>
+      <c r="I67">
+        <v>63000</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1.5524</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1.5872999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E68">
+        <v>25600</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1.6560999999999999</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1.6797</v>
+      </c>
+      <c r="I68">
+        <v>64000</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1.5508</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1.5855999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E69">
+        <v>26000</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1.6556999999999999</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1.6701999999999999</v>
+      </c>
+      <c r="I69">
+        <v>65000</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1.5462</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1.5751999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E70">
+        <v>26400</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1.6469</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1.6688000000000001</v>
+      </c>
+      <c r="I70">
+        <v>66000</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1.5524</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1.5740000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E71">
+        <v>26800</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1.6483000000000001</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1.6741999999999999</v>
+      </c>
+      <c r="I71">
+        <v>67000</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1.5417000000000001</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1.5653999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E72">
+        <v>27200</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1.6456</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1.6644000000000001</v>
+      </c>
+      <c r="I72">
+        <v>68000</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1.5422</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1.5696000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E73">
+        <v>27600</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1.6536999999999999</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1.6657</v>
+      </c>
+      <c r="I73">
+        <v>69000</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1.5308999999999999</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1.5613999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E74">
+        <v>28000</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1.6383000000000001</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1.6533</v>
+      </c>
+      <c r="I74">
+        <v>70000</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1.5317000000000001</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1.5589999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E75">
+        <v>28400</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.6534</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1.6557999999999999</v>
+      </c>
+      <c r="I75">
+        <v>71000</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1.5381</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1.5530999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E76">
+        <v>28800</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.6364000000000001</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="I76">
+        <v>72000</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1.5278</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1.5533999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E77">
+        <v>29200</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1.6291</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1.6455</v>
+      </c>
+      <c r="I77">
+        <v>73000</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1.5266</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1.5488</v>
+      </c>
+    </row>
+    <row r="78" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E78">
+        <v>29600</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1.6283000000000001</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1.6448</v>
+      </c>
+      <c r="I78">
+        <v>74000</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1.5226999999999999</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1.544</v>
+      </c>
+    </row>
+    <row r="79" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E79">
+        <v>30000</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1.6225000000000001</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1.6385000000000001</v>
+      </c>
+      <c r="I79">
+        <v>75000</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1.5238</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1.5443</v>
+      </c>
+    </row>
+    <row r="80" spans="5:15" x14ac:dyDescent="0.4">
+      <c r="E80">
+        <v>30400</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1.6129</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1.6341000000000001</v>
+      </c>
+      <c r="I80">
+        <v>76000</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="K80" s="1">
+        <v>1.5448999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E81">
+        <v>30800</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1.6136999999999999</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1.6355</v>
+      </c>
+      <c r="I81">
+        <v>77000</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1.5174000000000001</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1.5458000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E82">
+        <v>31200</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1.6182000000000001</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1.6386000000000001</v>
+      </c>
+      <c r="I82">
+        <v>78000</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1.5398000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E83">
+        <v>31600</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1.6082000000000001</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1.633</v>
+      </c>
+      <c r="I83">
+        <v>79000</v>
+      </c>
+      <c r="J83" s="1">
+        <v>1.5152000000000001</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1.5418000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E84">
+        <v>32000</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1.6145</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1.6243000000000001</v>
+      </c>
+      <c r="I84">
         <v>80000</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>10.920999999999999</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>10.9209</v>
-      </c>
-      <c r="AB2">
+      <c r="J84" s="1">
+        <v>1.5188999999999999</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1.5456000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E85">
+        <v>32400</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1.6057999999999999</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1.6244000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E86">
+        <v>32800</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1.5952</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1.6234</v>
+      </c>
+    </row>
+    <row r="87" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E87">
+        <v>33200</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1.591</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1.619</v>
+      </c>
+    </row>
+    <row r="88" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E88">
+        <v>33600</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1.5903</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1.6166</v>
+      </c>
+    </row>
+    <row r="89" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E89">
+        <v>34000</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1.5918000000000001</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1.6183000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E90">
+        <v>34400</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1.5845</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1.6145</v>
+      </c>
+    </row>
+    <row r="91" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E91">
+        <v>34800</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1.5853999999999999</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1.6073999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E92">
+        <v>35200</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1.5859000000000001</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1.6095999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E93">
+        <v>35600</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1.5759000000000001</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1.5982000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E94">
+        <v>36000</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1.5791999999999999</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1.6044</v>
+      </c>
+    </row>
+    <row r="95" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E95">
+        <v>36400</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1.5839000000000001</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1.6048</v>
+      </c>
+    </row>
+    <row r="96" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E96">
+        <v>36800</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1.5750999999999999</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1.5949</v>
+      </c>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E97">
+        <v>37200</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1.5805</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1.5958000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E98">
+        <v>37600</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1.5788</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1.5933999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E99">
+        <v>38000</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1.5699000000000001</v>
+      </c>
+      <c r="G99" s="2">
+        <v>1.5888</v>
+      </c>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E100">
+        <v>38400</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1.581</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1.5955999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E101">
+        <v>38800</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1.5742</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1.5931</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E102">
+        <v>39200</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1.5692999999999999</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1.5907</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E103">
+        <v>39600</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1.5667</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1.5904</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E104">
         <v>40000</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>10.920999999999999</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>10.9209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>250</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3.7261000000000002</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.8083999999999998</v>
-      </c>
-      <c r="N3">
-        <v>250</v>
-      </c>
-      <c r="O3" s="1">
-        <v>3.5164</v>
-      </c>
-      <c r="P3" s="1">
-        <v>3.5133999999999999</v>
-      </c>
-      <c r="S3">
-        <v>400</v>
-      </c>
-      <c r="T3" s="1">
-        <v>3.1528</v>
-      </c>
-      <c r="U3" s="1">
-        <v>3.1505000000000001</v>
-      </c>
-      <c r="X3">
-        <v>1000</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>2.5676000000000001</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>2.5728</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC3">
-        <v>400</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>3.1566000000000001</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>3.1547999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>500</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3.1183999999999998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.2465000000000002</v>
-      </c>
-      <c r="N4">
-        <v>500</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3.0125999999999999</v>
-      </c>
-      <c r="P4" s="1">
-        <v>3.0101</v>
-      </c>
-      <c r="S4">
-        <v>800</v>
-      </c>
-      <c r="T4" s="1">
-        <v>2.6905000000000001</v>
-      </c>
-      <c r="U4" s="1">
-        <v>2.6863000000000001</v>
-      </c>
-      <c r="X4">
-        <v>2000</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>2.2642000000000002</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>2.2709999999999999</v>
-      </c>
-      <c r="AA4" s="1"/>
-      <c r="AC4">
-        <v>800</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>2.6905999999999999</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>2.6854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>750</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2.7704</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.9064000000000001</v>
-      </c>
-      <c r="N5">
-        <v>750</v>
-      </c>
-      <c r="O5" s="1">
-        <v>2.7099000000000002</v>
-      </c>
-      <c r="P5" s="1">
-        <v>2.72</v>
-      </c>
-      <c r="S5">
-        <v>1200</v>
-      </c>
-      <c r="T5" s="1">
-        <v>2.4714</v>
-      </c>
-      <c r="U5" s="1">
-        <v>2.4685000000000001</v>
-      </c>
-      <c r="X5">
-        <v>3000</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>2.1406999999999998</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>2.1486000000000001</v>
-      </c>
-      <c r="AC5">
-        <v>1200</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>2.4744999999999999</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>2.4723000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.5596000000000001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.7195999999999998</v>
-      </c>
-      <c r="N6">
-        <v>1000</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2.5627</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2.5567000000000002</v>
-      </c>
-      <c r="S6">
-        <v>1600</v>
-      </c>
-      <c r="T6" s="1">
-        <v>2.3410000000000002</v>
-      </c>
-      <c r="U6" s="1">
-        <v>2.3411</v>
-      </c>
-      <c r="X6">
-        <v>4000</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>2.0638999999999998</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>2.0697000000000001</v>
-      </c>
-      <c r="AC6">
-        <v>1600</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>2.3450000000000002</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>2.3445999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1250</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.3954</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.5783</v>
-      </c>
-      <c r="N7">
-        <v>1250</v>
-      </c>
-      <c r="O7" s="1">
-        <v>2.4506999999999999</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2.4525999999999999</v>
-      </c>
-      <c r="S7">
-        <v>2000</v>
-      </c>
-      <c r="T7" s="1">
-        <v>2.2698999999999998</v>
-      </c>
-      <c r="U7" s="1">
-        <v>2.2730000000000001</v>
-      </c>
-      <c r="X7">
-        <v>5000</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>2.0024999999999999</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>2.0158999999999998</v>
-      </c>
-      <c r="AC7">
-        <v>2000</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>2.2706</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>2.274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1500</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2.2621000000000002</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.4630999999999998</v>
-      </c>
-      <c r="N8">
-        <v>1500</v>
-      </c>
-      <c r="O8" s="1">
-        <v>2.3616000000000001</v>
-      </c>
-      <c r="P8" s="1">
-        <v>2.3633999999999999</v>
-      </c>
-      <c r="S8">
-        <v>2400</v>
-      </c>
-      <c r="T8" s="1">
-        <v>2.1999</v>
-      </c>
-      <c r="U8" s="1">
-        <v>2.1095999999999999</v>
-      </c>
-      <c r="X8">
-        <v>6000</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>1.9662999999999999</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>1.9737</v>
-      </c>
-      <c r="AC8">
-        <v>2400</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>2.2000999999999999</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>2.2101999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1750</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2.1650999999999998</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.3815</v>
-      </c>
-      <c r="N9">
-        <v>1750</v>
-      </c>
-      <c r="O9" s="1">
-        <v>2.3062999999999998</v>
-      </c>
-      <c r="P9" s="1">
-        <v>2.3189000000000002</v>
-      </c>
-      <c r="S9">
-        <v>2800</v>
-      </c>
-      <c r="T9" s="1">
-        <v>2.1598000000000002</v>
-      </c>
-      <c r="U9" s="1">
-        <v>2.1640999999999999</v>
-      </c>
-      <c r="X9">
-        <v>7000</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>1.9305000000000001</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>1.9381999999999999</v>
-      </c>
-      <c r="AC9">
-        <v>2800</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>2.1566000000000001</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2000</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2.0689000000000002</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.3144</v>
-      </c>
-      <c r="N10">
-        <v>2000</v>
-      </c>
-      <c r="O10" s="1">
-        <v>2.2589999999999999</v>
-      </c>
-      <c r="P10" s="1">
-        <v>2.2547999999999999</v>
-      </c>
-      <c r="S10">
-        <v>3200</v>
-      </c>
-      <c r="T10" s="1">
-        <v>2.1156000000000001</v>
-      </c>
-      <c r="U10" s="1">
-        <v>2.1206</v>
-      </c>
-      <c r="X10">
-        <v>8000</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>1.9107000000000001</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>1.9220999999999999</v>
-      </c>
-      <c r="AC10">
-        <v>3200</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>2.1147999999999998</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>2.1196000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2250</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2.0019</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.2682000000000002</v>
-      </c>
-      <c r="N11">
-        <v>2250</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2.2976000000000001</v>
-      </c>
-      <c r="P11" s="1">
-        <v>2.2176999999999998</v>
-      </c>
-      <c r="S11">
-        <v>3600</v>
-      </c>
-      <c r="T11" s="1">
-        <v>2.0859000000000001</v>
-      </c>
-      <c r="U11" s="1">
-        <v>2.0958000000000001</v>
-      </c>
-      <c r="X11">
-        <v>9000</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>1.8847</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>1.9033</v>
-      </c>
-      <c r="AC11">
-        <v>3600</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>2.0865</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>2.0950000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2500</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.9329000000000001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.2141000000000002</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="N12">
-        <v>2500</v>
-      </c>
-      <c r="O12" s="1">
-        <v>2.1856</v>
-      </c>
-      <c r="P12" s="1">
-        <v>2.1985999999999999</v>
-      </c>
-      <c r="S12">
-        <v>4000</v>
-      </c>
-      <c r="T12" s="1">
-        <v>2.0518000000000001</v>
-      </c>
-      <c r="U12" s="1">
-        <v>2.0590000000000002</v>
-      </c>
-      <c r="X12">
-        <v>10000</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>1.8666</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>1.8795999999999999</v>
-      </c>
-      <c r="AC12">
-        <v>4000</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>2.0528</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>2.0589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2750</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1.8774</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.1846999999999999</v>
-      </c>
-      <c r="N13">
-        <v>2750</v>
-      </c>
-      <c r="O13" s="1">
-        <v>2.1621000000000001</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2.1690999999999998</v>
-      </c>
-      <c r="S13">
-        <v>4400</v>
-      </c>
-      <c r="T13" s="1">
-        <v>2.0274999999999999</v>
-      </c>
-      <c r="U13" s="1">
-        <v>2.0398999999999998</v>
-      </c>
-      <c r="X13">
-        <v>11000</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>1.8552999999999999</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>1.8649</v>
-      </c>
-      <c r="AC13">
-        <v>4400</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>2.0270000000000001</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>2.0388999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3000</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1.8147</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.1440000000000001</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="N14">
-        <v>3000</v>
-      </c>
-      <c r="O14" s="1">
-        <v>2.1333000000000002</v>
-      </c>
-      <c r="P14" s="1">
-        <v>2.1385000000000001</v>
-      </c>
-      <c r="S14">
-        <v>4800</v>
-      </c>
-      <c r="T14" s="1">
-        <v>2.0154999999999998</v>
-      </c>
-      <c r="U14" s="1">
-        <v>2.0148999999999999</v>
-      </c>
-      <c r="X14">
-        <v>12000</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>1.8383</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>1.8498000000000001</v>
-      </c>
-      <c r="AC14">
-        <v>4800</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>2.0154000000000001</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>2.0141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3250</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1.7555000000000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.1156000000000001</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="N15">
-        <v>3250</v>
-      </c>
-      <c r="O15" s="1">
-        <v>2.1061000000000001</v>
-      </c>
-      <c r="P15" s="1">
-        <v>2.1040000000000001</v>
-      </c>
-      <c r="S15">
-        <v>5200</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1.9878</v>
-      </c>
-      <c r="U15" s="1">
-        <v>1.9948999999999999</v>
-      </c>
-      <c r="X15">
-        <v>13000</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>1.8381000000000001</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>1.8461000000000001</v>
-      </c>
-      <c r="AC15">
-        <v>5200</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>1.9863</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>1.9941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3500</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1.724</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.0949</v>
-      </c>
-      <c r="N16">
-        <v>3500</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2.0796000000000001</v>
-      </c>
-      <c r="P16" s="1">
-        <v>2.0869</v>
-      </c>
-      <c r="S16">
-        <v>5600</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1.9813000000000001</v>
-      </c>
-      <c r="U16" s="1">
-        <v>1.992</v>
-      </c>
-      <c r="X16">
-        <v>14000</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>1.8140000000000001</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>1.8254999999999999</v>
-      </c>
-      <c r="AC16">
-        <v>5600</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>1.9829000000000001</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>1.9928999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3750</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.6869000000000001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.0859999999999999</v>
-      </c>
-      <c r="N17">
-        <v>3750</v>
-      </c>
-      <c r="O17" s="1">
-        <v>2.0592999999999999</v>
-      </c>
-      <c r="P17" s="1">
-        <v>2.0674999999999999</v>
-      </c>
-      <c r="S17">
-        <v>6000</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1.9558</v>
-      </c>
-      <c r="U17" s="1">
-        <v>1.9635</v>
-      </c>
-      <c r="X17">
-        <v>15000</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>1.8111999999999999</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>1.8298000000000001</v>
-      </c>
-      <c r="AC17">
-        <v>6000</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>1.9555</v>
-      </c>
-      <c r="AE17" s="1">
-        <v>1.9629000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4000</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1.6431</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.0737000000000001</v>
-      </c>
-      <c r="N18">
-        <v>4000</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2.0392000000000001</v>
-      </c>
-      <c r="P18" s="1">
-        <v>2.044</v>
-      </c>
-      <c r="S18">
-        <v>6400</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1.9406000000000001</v>
-      </c>
-      <c r="U18" s="1">
-        <v>1.9498</v>
-      </c>
-      <c r="X18">
-        <v>16000</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>1.8015000000000001</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>1.8127</v>
-      </c>
-      <c r="AC18">
-        <v>6400</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>1.9420999999999999</v>
-      </c>
-      <c r="AE18" s="1">
-        <v>1.9508000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4250</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1.5953999999999999</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.0417999999999998</v>
-      </c>
-      <c r="E19">
-        <v>10000</v>
-      </c>
-      <c r="N19">
-        <v>4250</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2.0268999999999999</v>
-      </c>
-      <c r="P19" s="1">
-        <v>2.0341</v>
-      </c>
-      <c r="S19">
-        <v>6800</v>
-      </c>
-      <c r="T19" s="1">
-        <v>1.9348000000000001</v>
-      </c>
-      <c r="U19" s="1">
-        <v>1.9362999999999999</v>
-      </c>
-      <c r="X19">
-        <v>17000</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>1.792</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>1.8022</v>
-      </c>
-      <c r="AC19">
-        <v>6800</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>1.9336</v>
-      </c>
-      <c r="AE19" s="1">
-        <v>1.9353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4500</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.5589</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2.0394000000000001</v>
-      </c>
-      <c r="N20">
-        <v>4500</v>
-      </c>
-      <c r="O20" s="1">
-        <v>2.0095999999999998</v>
-      </c>
-      <c r="P20" s="1">
-        <v>2.0150999999999999</v>
-      </c>
-      <c r="S20">
-        <v>7200</v>
-      </c>
-      <c r="T20" s="1">
-        <v>1.9148000000000001</v>
-      </c>
-      <c r="U20" s="1">
-        <v>1.9198</v>
-      </c>
-      <c r="X20">
-        <v>18000</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>1.7857000000000001</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>1.8007</v>
-      </c>
-      <c r="AC20">
-        <v>7200</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>1.9155</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>1.9195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4750</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.5159</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2.0335999999999999</v>
-      </c>
-      <c r="N21">
-        <v>4750</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1.9890000000000001</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1.9963</v>
-      </c>
-      <c r="S21">
-        <v>7600</v>
-      </c>
-      <c r="T21" s="1">
-        <v>1.9117</v>
-      </c>
-      <c r="U21" s="1">
-        <v>1.9198999999999999</v>
-      </c>
-      <c r="X21">
-        <v>19000</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>1.7789999999999999</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>1.7861</v>
-      </c>
-      <c r="AC21">
-        <v>7600</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>1.9101999999999999</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>1.9189000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5000</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.4894000000000001</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2.0253999999999999</v>
-      </c>
-      <c r="N22">
-        <v>5000</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1.9716</v>
-      </c>
-      <c r="P22" s="1">
-        <v>1.978</v>
-      </c>
-      <c r="S22">
-        <v>8000</v>
-      </c>
-      <c r="T22" s="1">
-        <v>1.8937999999999999</v>
-      </c>
-      <c r="U22" s="1">
-        <v>1.9124000000000001</v>
-      </c>
-      <c r="X22">
-        <v>20000</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>1.7606999999999999</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>1.7864</v>
-      </c>
-      <c r="AC22">
-        <v>8000</v>
-      </c>
-      <c r="AD22" s="1">
-        <v>1.897</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>1.9165000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>5250</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1.448</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.0185</v>
-      </c>
-      <c r="N23">
-        <v>5250</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1.9651000000000001</v>
-      </c>
-      <c r="P23" s="1">
-        <v>1.9734</v>
-      </c>
-      <c r="S23">
-        <v>8400</v>
-      </c>
-      <c r="T23" s="1">
-        <v>1.8900999999999999</v>
-      </c>
-      <c r="U23" s="1">
-        <v>1.8995</v>
-      </c>
-      <c r="X23">
-        <v>21000</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>1.7591000000000001</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>1.7785</v>
-      </c>
-      <c r="AC23">
-        <v>8400</v>
-      </c>
-      <c r="AD23" s="1">
-        <v>1.8876999999999999</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>1.8967000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5500</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1.4047000000000001</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2.0196999999999998</v>
-      </c>
-      <c r="N24">
-        <v>5500</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1.9599</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1.9610000000000001</v>
-      </c>
-      <c r="S24">
-        <v>8800</v>
-      </c>
-      <c r="T24" s="1">
-        <v>1.8776999999999999</v>
-      </c>
-      <c r="U24" s="1">
-        <v>1.8924000000000001</v>
-      </c>
-      <c r="X24">
-        <v>22000</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>1.7509999999999999</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>1.7726999999999999</v>
-      </c>
-      <c r="AC24">
-        <v>8800</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>1.8787</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>1.8937999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>5750</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1.3755999999999999</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2.0047999999999999</v>
-      </c>
-      <c r="N25">
-        <v>5750</v>
-      </c>
-      <c r="O25" s="1">
-        <v>1.9458</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1.9500999999999999</v>
-      </c>
-      <c r="S25">
-        <v>9200</v>
-      </c>
-      <c r="T25" s="1">
-        <v>1.8611</v>
-      </c>
-      <c r="U25" s="1">
-        <v>1.8853</v>
-      </c>
-      <c r="X25">
-        <v>23000</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>1.7453000000000001</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>1.7688999999999999</v>
-      </c>
-      <c r="AC25">
-        <v>9200</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>1.8606</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>1.8844000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>6000</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1.343</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2.0057</v>
-      </c>
-      <c r="N26">
-        <v>6000</v>
-      </c>
-      <c r="O26" s="1">
-        <v>1.9317</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1.9482999999999999</v>
-      </c>
-      <c r="S26">
-        <v>9600</v>
-      </c>
-      <c r="T26" s="1">
-        <v>1.861</v>
-      </c>
-      <c r="U26" s="1">
-        <v>1.873</v>
-      </c>
-      <c r="X26">
-        <v>24000</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>1.7513000000000001</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>1.7607999999999999</v>
-      </c>
-      <c r="AC26">
-        <v>9600</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>1.859</v>
-      </c>
-      <c r="AE26" s="1">
-        <v>1.8711</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>6250</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1.3182</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2.0118999999999998</v>
-      </c>
-      <c r="N27">
-        <v>6250</v>
-      </c>
-      <c r="O27" s="1">
-        <v>1.9106000000000001</v>
-      </c>
-      <c r="P27" s="1">
-        <v>1.9247000000000001</v>
-      </c>
-      <c r="S27">
-        <v>10000</v>
-      </c>
-      <c r="T27" s="1">
-        <v>1.8649</v>
-      </c>
-      <c r="U27" s="1">
-        <v>1.8665</v>
-      </c>
-      <c r="X27">
-        <v>25000</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>1.7323</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>1.7486999999999999</v>
-      </c>
-      <c r="AC27">
-        <v>10000</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>1.8646</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>1.8673</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>6500</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1.2876000000000001</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.9981</v>
-      </c>
-      <c r="N28">
-        <v>6500</v>
-      </c>
-      <c r="O28" s="1">
-        <v>1.9055</v>
-      </c>
-      <c r="P28" s="1">
-        <v>1.9142999999999999</v>
-      </c>
-      <c r="S28">
-        <v>10400</v>
-      </c>
-      <c r="T28" s="1">
-        <v>1.8556999999999999</v>
-      </c>
-      <c r="U28" s="1">
-        <v>1.861</v>
-      </c>
-      <c r="X28">
-        <v>26000</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>1.7323999999999999</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>1.7508999999999999</v>
-      </c>
-      <c r="AC28">
-        <v>10400</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>1.8527</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>1.8593999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>6750</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1.2599</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2.0141</v>
-      </c>
-      <c r="N29">
-        <v>6750</v>
-      </c>
-      <c r="O29" s="1">
-        <v>1.893</v>
-      </c>
-      <c r="P29" s="1">
-        <v>1.9097999999999999</v>
-      </c>
-      <c r="S29">
-        <v>10800</v>
-      </c>
-      <c r="T29" s="1">
-        <v>1.8442000000000001</v>
-      </c>
-      <c r="U29" s="1">
-        <v>1.8508</v>
-      </c>
-      <c r="X29">
-        <v>27000</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>1.7316</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>1.7468999999999999</v>
-      </c>
-      <c r="AC29">
-        <v>10800</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>1.8433999999999999</v>
-      </c>
-      <c r="AE29" s="1">
-        <v>1.8512</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>7000</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1.2385999999999999</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2.0026999999999999</v>
-      </c>
-      <c r="N30">
-        <v>7000</v>
-      </c>
-      <c r="O30" s="1">
-        <v>1.8975</v>
-      </c>
-      <c r="P30" s="1">
-        <v>1.9014</v>
-      </c>
-      <c r="S30">
-        <v>11200</v>
-      </c>
-      <c r="T30" s="1">
-        <v>1.835</v>
-      </c>
-      <c r="U30" s="1">
-        <v>1.8449</v>
-      </c>
-      <c r="X30">
-        <v>28000</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>1.7222999999999999</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>1.7333000000000001</v>
-      </c>
-      <c r="AC30">
-        <v>11200</v>
-      </c>
-      <c r="AD30" s="1">
-        <v>1.8332999999999999</v>
-      </c>
-      <c r="AE30" s="1">
-        <v>1.8445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>7250</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1.2088000000000001</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2.0093000000000001</v>
-      </c>
-      <c r="N31">
-        <v>7250</v>
-      </c>
-      <c r="O31" s="1">
-        <v>1.8747</v>
-      </c>
-      <c r="P31" s="1">
-        <v>1.8889</v>
-      </c>
-      <c r="S31">
-        <v>11600</v>
-      </c>
-      <c r="T31" s="1">
-        <v>1.8274999999999999</v>
-      </c>
-      <c r="U31" s="1">
-        <v>1.831</v>
-      </c>
-      <c r="X31">
-        <v>29000</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>1.7157</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>1.7383</v>
-      </c>
-      <c r="AC31">
-        <v>11600</v>
-      </c>
-      <c r="AD31" s="1">
-        <v>1.827</v>
-      </c>
-      <c r="AE31" s="1">
-        <v>1.8307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>7500</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1.1811</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2.0076000000000001</v>
-      </c>
-      <c r="N32">
-        <v>7500</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1.8644000000000001</v>
-      </c>
-      <c r="P32" s="1">
-        <v>1.8724000000000001</v>
-      </c>
-      <c r="S32">
-        <v>12000</v>
-      </c>
-      <c r="T32" s="1">
-        <v>1.819</v>
-      </c>
-      <c r="U32" s="1">
-        <v>1.8259000000000001</v>
-      </c>
-      <c r="X32">
-        <v>30000</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>1.7041999999999999</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>1.7267999999999999</v>
-      </c>
-      <c r="AC32">
-        <v>12000</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>1.8185</v>
-      </c>
-      <c r="AE32" s="1">
-        <v>1.8251999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>7750</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1.1680999999999999</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2.0097999999999998</v>
-      </c>
-      <c r="N33">
-        <v>7750</v>
-      </c>
-      <c r="O33" s="1">
-        <v>1.8581000000000001</v>
-      </c>
-      <c r="P33" s="1">
-        <v>1.8657999999999999</v>
-      </c>
-      <c r="S33">
-        <v>12400</v>
-      </c>
-      <c r="T33" s="1">
-        <v>1.8123</v>
-      </c>
-      <c r="U33" s="1">
-        <v>1.8171999999999999</v>
-      </c>
-      <c r="X33">
-        <v>31000</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>1.7075</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>1.7239</v>
-      </c>
-      <c r="AC33">
-        <v>12400</v>
-      </c>
-      <c r="AD33" s="1">
-        <v>1.8110999999999999</v>
-      </c>
-      <c r="AE33" s="1">
-        <v>1.8162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>8000</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1.1469</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2.0165999999999999</v>
-      </c>
-      <c r="N34">
-        <v>8000</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1.8561000000000001</v>
-      </c>
-      <c r="P34" s="1">
-        <v>1.8606</v>
-      </c>
-      <c r="S34">
-        <v>12800</v>
-      </c>
-      <c r="T34" s="1">
-        <v>1.804</v>
-      </c>
-      <c r="U34" s="1">
-        <v>1.8191999999999999</v>
-      </c>
-      <c r="X34">
-        <v>32000</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>1.6996</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>1.7231000000000001</v>
-      </c>
-      <c r="AC34">
-        <v>12800</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>1.8049999999999999</v>
-      </c>
-      <c r="AE34" s="1">
-        <v>1.8207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>8250</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1.1282000000000001</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2.0265</v>
-      </c>
-      <c r="N35">
-        <v>8250</v>
-      </c>
-      <c r="O35" s="1">
-        <v>1.8468</v>
-      </c>
-      <c r="P35" s="1">
-        <v>1.8626</v>
-      </c>
-      <c r="S35">
-        <v>13200</v>
-      </c>
-      <c r="T35" s="1">
-        <v>1.7954000000000001</v>
-      </c>
-      <c r="U35" s="1">
-        <v>1.8095000000000001</v>
-      </c>
-      <c r="X35">
-        <v>33000</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>1.6917</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>1.7146999999999999</v>
-      </c>
-      <c r="AC35">
-        <v>13200</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>1.7936000000000001</v>
-      </c>
-      <c r="AE35" s="1">
-        <v>1.8085</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>8500</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1.1091</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2.0209999999999999</v>
-      </c>
-      <c r="N36">
-        <v>8500</v>
-      </c>
-      <c r="O36" s="1">
-        <v>1.8238000000000001</v>
-      </c>
-      <c r="P36" s="1">
-        <v>1.8407</v>
-      </c>
-      <c r="S36">
-        <v>13600</v>
-      </c>
-      <c r="T36" s="1">
-        <v>1.7989999999999999</v>
-      </c>
-      <c r="U36" s="1">
-        <v>1.8070999999999999</v>
-      </c>
-      <c r="X36">
-        <v>34000</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>1.6979</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>1.7195</v>
-      </c>
-      <c r="AC36">
-        <v>13600</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>1.7990999999999999</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>1.8066</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>8750</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.1027</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2.0192000000000001</v>
-      </c>
-      <c r="N37">
-        <v>8750</v>
-      </c>
-      <c r="O37" s="1">
-        <v>1.8198000000000001</v>
-      </c>
-      <c r="P37" s="1">
-        <v>1.831</v>
-      </c>
-      <c r="S37">
-        <v>14000</v>
-      </c>
-      <c r="T37" s="1">
-        <v>1.7827</v>
-      </c>
-      <c r="U37" s="1">
-        <v>1.8073999999999999</v>
-      </c>
-      <c r="X37">
-        <v>35000</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>1.6887000000000001</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>1.7043999999999999</v>
-      </c>
-      <c r="AC37">
-        <v>14000</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>1.784</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>1.8080000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>9000</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.0824</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2.0217000000000001</v>
-      </c>
-      <c r="N38">
-        <v>9000</v>
-      </c>
-      <c r="O38" s="1">
-        <v>1.8127</v>
-      </c>
-      <c r="P38" s="1">
-        <v>1.8309</v>
-      </c>
-      <c r="S38">
-        <v>14400</v>
-      </c>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="X38">
-        <v>36000</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>1.6855</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>1.6911</v>
-      </c>
-      <c r="AC38">
-        <v>14400</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>1.7888999999999999</v>
-      </c>
-      <c r="AE38" s="1">
-        <v>1.794</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>9250</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1.0727</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2.0217999999999998</v>
-      </c>
-      <c r="N39">
-        <v>9250</v>
-      </c>
-      <c r="O39" s="1">
-        <v>1.8065</v>
-      </c>
-      <c r="P39" s="1">
-        <v>1.8125</v>
-      </c>
-      <c r="S39">
-        <v>14800</v>
-      </c>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="X39">
-        <v>37000</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>1.6777</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>1.6940999999999999</v>
-      </c>
-      <c r="AC39">
-        <v>14800</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>1.7856000000000001</v>
-      </c>
-      <c r="AE39" s="1">
-        <v>1.7948</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>9500</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2.0318000000000001</v>
-      </c>
-      <c r="N40">
-        <v>9500</v>
-      </c>
-      <c r="O40" s="1">
-        <v>1.794</v>
-      </c>
-      <c r="P40" s="1">
-        <v>1.8032999999999999</v>
-      </c>
-      <c r="S40">
-        <v>15200</v>
-      </c>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="X40">
-        <v>38000</v>
-      </c>
-      <c r="Y40" s="1">
-        <v>1.6736</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>1.6946000000000001</v>
-      </c>
-      <c r="AC40">
-        <v>15200</v>
-      </c>
-      <c r="AD40" s="1">
-        <v>1.7788999999999999</v>
-      </c>
-      <c r="AE40" s="1">
-        <v>1.7936000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>9750</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1.0558000000000001</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2.0285000000000002</v>
-      </c>
-      <c r="N41">
-        <v>9750</v>
-      </c>
-      <c r="O41" s="1">
-        <v>1.7855000000000001</v>
-      </c>
-      <c r="P41" s="1">
-        <v>1.8046</v>
-      </c>
-      <c r="S41">
-        <v>15600</v>
-      </c>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="X41">
-        <v>39000</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>1.6684000000000001</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>1.6832</v>
-      </c>
-      <c r="AC41">
-        <v>15600</v>
-      </c>
-      <c r="AD41" s="1">
-        <v>1.7664</v>
-      </c>
-      <c r="AE41" s="1">
-        <v>1.7932999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>10000</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2.0306000000000002</v>
-      </c>
-      <c r="N42">
-        <v>10000</v>
-      </c>
-      <c r="O42" s="1">
-        <v>1.7803</v>
-      </c>
-      <c r="P42" s="1">
-        <v>1.7929999999999999</v>
-      </c>
-      <c r="S42">
-        <v>16000</v>
-      </c>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="X42">
-        <v>40000</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>1.6636</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>1.6773</v>
-      </c>
-      <c r="AC42">
-        <v>16000</v>
-      </c>
-      <c r="AD42" s="1">
-        <v>1.7641</v>
-      </c>
-      <c r="AE42" s="1">
-        <v>1.7821</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N43">
-        <v>10250</v>
-      </c>
-      <c r="O43" s="1">
-        <v>1.7821</v>
-      </c>
-      <c r="P43" s="1">
-        <v>1.7918000000000001</v>
-      </c>
-      <c r="S43">
-        <v>16400</v>
-      </c>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1">
-        <v>1.7743</v>
-      </c>
-      <c r="X43">
-        <v>41000</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>1.6565000000000001</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>1.6773</v>
-      </c>
-      <c r="AC43">
-        <v>16400</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>1.7618</v>
-      </c>
-      <c r="AE43" s="1">
-        <v>1.7768999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N44">
-        <v>10500</v>
-      </c>
-      <c r="O44" s="1">
-        <v>1.7718</v>
-      </c>
-      <c r="P44" s="1">
-        <v>1.7763</v>
-      </c>
-      <c r="S44">
-        <v>16800</v>
-      </c>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1">
-        <v>1.7712000000000001</v>
-      </c>
-      <c r="X44">
-        <v>42000</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>1.6556999999999999</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>1.6720999999999999</v>
-      </c>
-      <c r="AC44">
-        <v>16800</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>1.7653000000000001</v>
-      </c>
-      <c r="AE44" s="1">
-        <v>1.7732000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N45">
-        <v>10750</v>
-      </c>
-      <c r="O45" s="1">
-        <v>1.7592000000000001</v>
-      </c>
-      <c r="P45" s="1">
-        <v>1.7822</v>
-      </c>
-      <c r="S45">
-        <v>17200</v>
-      </c>
-      <c r="T45" s="1">
-        <v>1.7557</v>
-      </c>
-      <c r="U45" s="1">
-        <v>1.7645999999999999</v>
-      </c>
-      <c r="X45">
-        <v>43000</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>1.6494</v>
-      </c>
-      <c r="Z45" s="1">
-        <v>1.6624000000000001</v>
-      </c>
-      <c r="AC45">
-        <v>17200</v>
-      </c>
-      <c r="AD45" s="1">
-        <v>1.758</v>
-      </c>
-      <c r="AE45" s="1">
-        <v>1.7667999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N46">
-        <v>11000</v>
-      </c>
-      <c r="O46" s="1">
-        <v>1.7559</v>
-      </c>
-      <c r="P46" s="1">
-        <v>1.7729999999999999</v>
-      </c>
-      <c r="S46">
-        <v>17600</v>
-      </c>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1">
-        <v>1.7628999999999999</v>
-      </c>
-      <c r="X46">
-        <v>44000</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>1.6433</v>
-      </c>
-      <c r="Z46" s="1">
-        <v>1.6631</v>
-      </c>
-      <c r="AC46">
-        <v>17600</v>
-      </c>
-      <c r="AD46" s="1">
-        <v>1.7394000000000001</v>
-      </c>
-      <c r="AE46" s="1">
-        <v>1.7635000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N47">
-        <v>11250</v>
-      </c>
-      <c r="O47" s="1">
-        <v>1.7544999999999999</v>
-      </c>
-      <c r="P47" s="1">
-        <v>1.7569999999999999</v>
-      </c>
-      <c r="S47">
-        <v>18000</v>
-      </c>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="X47">
-        <v>45000</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>1.6369</v>
-      </c>
-      <c r="Z47" s="1">
-        <v>1.6581999999999999</v>
-      </c>
-      <c r="AC47">
-        <v>18000</v>
-      </c>
-      <c r="AD47" s="1">
-        <v>1.7423999999999999</v>
-      </c>
-      <c r="AE47" s="1">
-        <v>1.7476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="N48">
-        <v>11500</v>
-      </c>
-      <c r="O48" s="1">
-        <v>1.7405999999999999</v>
-      </c>
-      <c r="P48" s="1">
-        <v>1.7413000000000001</v>
-      </c>
-      <c r="S48">
-        <v>18400</v>
-      </c>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="X48">
-        <v>46000</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>1.6400999999999999</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>1.65</v>
-      </c>
-      <c r="AC48">
-        <v>18400</v>
-      </c>
-      <c r="AD48" s="1">
-        <v>1.7407999999999999</v>
-      </c>
-      <c r="AE48" s="1">
-        <v>1.7524999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N49">
-        <v>11750</v>
-      </c>
-      <c r="O49" s="1">
-        <v>1.7405999999999999</v>
-      </c>
-      <c r="P49" s="1">
-        <v>1.7542</v>
-      </c>
-      <c r="S49">
-        <v>18800</v>
-      </c>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="X49">
-        <v>47000</v>
-      </c>
-      <c r="Y49" s="1">
-        <v>1.6342000000000001</v>
-      </c>
-      <c r="Z49" s="1">
-        <v>1.6503000000000001</v>
-      </c>
-      <c r="AC49">
-        <v>18800</v>
-      </c>
-      <c r="AD49" s="1">
-        <v>1.7369000000000001</v>
-      </c>
-      <c r="AE49" s="1">
-        <v>1.7501</v>
-      </c>
-    </row>
-    <row r="50" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N50">
-        <v>12000</v>
-      </c>
-      <c r="O50" s="1">
-        <v>1.7295</v>
-      </c>
-      <c r="P50" s="1">
-        <v>1.7552000000000001</v>
-      </c>
-      <c r="S50">
-        <v>19200</v>
-      </c>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="X50">
-        <v>48000</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>1.6234999999999999</v>
-      </c>
-      <c r="Z50" s="1">
-        <v>1.6477999999999999</v>
-      </c>
-      <c r="AC50">
-        <v>19200</v>
-      </c>
-      <c r="AD50" s="1">
-        <v>1.7336</v>
-      </c>
-      <c r="AE50" s="1">
-        <v>1.7465999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N51">
-        <v>12250</v>
-      </c>
-      <c r="O51" s="1">
-        <v>1.7369000000000001</v>
-      </c>
-      <c r="P51" s="1">
-        <v>1.7451000000000001</v>
-      </c>
-      <c r="S51">
-        <v>19600</v>
-      </c>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="X51">
-        <v>49000</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>1.6174999999999999</v>
-      </c>
-      <c r="Z51" s="1">
-        <v>1.6392</v>
-      </c>
-      <c r="AC51">
-        <v>19600</v>
-      </c>
-      <c r="AD51" s="1">
-        <v>1.7202</v>
-      </c>
-      <c r="AE51" s="1">
-        <v>1.7323999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N52">
-        <v>12500</v>
-      </c>
-      <c r="O52" s="1">
-        <v>1.7213000000000001</v>
-      </c>
-      <c r="P52" s="1">
-        <v>1.7447999999999999</v>
-      </c>
-      <c r="S52">
-        <v>20000</v>
-      </c>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="X52">
-        <v>50000</v>
-      </c>
-      <c r="Y52" s="1">
-        <v>1.6162000000000001</v>
-      </c>
-      <c r="Z52" s="1">
-        <v>1.6325000000000001</v>
-      </c>
-      <c r="AC52">
-        <v>20000</v>
-      </c>
-      <c r="AD52" s="1">
-        <v>1.7219</v>
-      </c>
-      <c r="AE52" s="1">
-        <v>1.742</v>
-      </c>
-    </row>
-    <row r="53" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N53">
-        <v>12750</v>
-      </c>
-      <c r="O53" s="1">
-        <v>1.7230000000000001</v>
-      </c>
-      <c r="P53" s="1">
-        <v>1.7343999999999999</v>
-      </c>
-      <c r="S53">
-        <v>20400</v>
-      </c>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1">
-        <v>1.7324999999999999</v>
-      </c>
-      <c r="X53">
-        <v>51000</v>
-      </c>
-      <c r="Y53" s="1">
-        <v>1.609</v>
-      </c>
-      <c r="Z53" s="1">
-        <v>1.6353</v>
-      </c>
-      <c r="AC53">
-        <v>20400</v>
-      </c>
-      <c r="AD53" s="1">
-        <v>1.7123999999999999</v>
-      </c>
-      <c r="AE53" s="1">
-        <v>1.7321</v>
-      </c>
-    </row>
-    <row r="54" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N54">
-        <v>13000</v>
-      </c>
-      <c r="O54" s="1">
-        <v>1.7185999999999999</v>
-      </c>
-      <c r="P54" s="1">
-        <v>1.7262999999999999</v>
-      </c>
-      <c r="S54">
-        <v>20800</v>
-      </c>
-      <c r="T54" s="1">
-        <v>1.7048000000000001</v>
-      </c>
-      <c r="U54" s="1">
-        <v>1.7272000000000001</v>
-      </c>
-      <c r="X54">
-        <v>52000</v>
-      </c>
-      <c r="Y54" s="1">
-        <v>1.6086</v>
-      </c>
-      <c r="Z54" s="1">
-        <v>1.6284000000000001</v>
-      </c>
-      <c r="AC54">
-        <v>20800</v>
-      </c>
-      <c r="AD54" s="1">
-        <v>1.7052</v>
-      </c>
-      <c r="AE54" s="1">
-        <v>1.7270000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N55">
-        <v>13250</v>
-      </c>
-      <c r="O55" s="1">
-        <v>1.7244999999999999</v>
-      </c>
-      <c r="P55" s="1">
-        <v>1.7262</v>
-      </c>
-      <c r="S55">
-        <v>21200</v>
-      </c>
-      <c r="T55" s="1">
-        <v>1.6991000000000001</v>
-      </c>
-      <c r="U55" s="1">
-        <v>1.7284999999999999</v>
-      </c>
-      <c r="X55">
-        <v>53000</v>
-      </c>
-      <c r="Y55" s="1">
-        <v>1.6046</v>
-      </c>
-      <c r="Z55" s="1">
-        <v>1.6212</v>
-      </c>
-      <c r="AC55">
-        <v>21200</v>
-      </c>
-      <c r="AD55" s="1">
-        <v>1.6994</v>
-      </c>
-      <c r="AE55" s="1">
-        <v>1.7299</v>
-      </c>
-    </row>
-    <row r="56" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N56">
-        <v>13500</v>
-      </c>
-      <c r="O56" s="1">
-        <v>1.6993</v>
-      </c>
-      <c r="P56" s="1">
-        <v>1.7205999999999999</v>
-      </c>
-      <c r="S56">
-        <v>21600</v>
-      </c>
-      <c r="T56" s="1">
-        <v>1.7038</v>
-      </c>
-      <c r="U56" s="1">
-        <v>1.7293000000000001</v>
-      </c>
-      <c r="X56">
-        <v>54000</v>
-      </c>
-      <c r="Y56" s="1">
-        <v>1.5961000000000001</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>1.6221000000000001</v>
-      </c>
-      <c r="AC56">
-        <v>21600</v>
-      </c>
-      <c r="AD56" s="1">
-        <v>1.704</v>
-      </c>
-      <c r="AE56" s="1">
-        <v>1.7296</v>
-      </c>
-    </row>
-    <row r="57" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N57">
-        <v>13750</v>
-      </c>
-      <c r="O57" s="1">
-        <v>1.7104999999999999</v>
-      </c>
-      <c r="P57" s="1">
-        <v>1.7221</v>
-      </c>
-      <c r="S57">
-        <v>22000</v>
-      </c>
-      <c r="T57" s="1">
-        <v>1.6992</v>
-      </c>
-      <c r="U57" s="1">
-        <v>1.7184999999999999</v>
-      </c>
-      <c r="X57">
-        <v>55000</v>
-      </c>
-      <c r="Y57" s="1">
-        <v>1.5952999999999999</v>
-      </c>
-      <c r="Z57" s="1">
-        <v>1.6155999999999999</v>
-      </c>
-      <c r="AC57">
-        <v>22000</v>
-      </c>
-      <c r="AD57" s="1">
-        <v>1.7028000000000001</v>
-      </c>
-      <c r="AE57" s="1">
-        <v>1.7218</v>
-      </c>
-    </row>
-    <row r="58" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N58">
-        <v>14000</v>
-      </c>
-      <c r="O58" s="1">
-        <v>1.704</v>
-      </c>
-      <c r="P58" s="1">
-        <v>1.7204999999999999</v>
-      </c>
-      <c r="S58">
-        <v>22400</v>
-      </c>
-      <c r="T58" s="1">
-        <v>1.6899</v>
-      </c>
-      <c r="U58" s="1">
-        <v>1.7138</v>
-      </c>
-      <c r="X58">
-        <v>56000</v>
-      </c>
-      <c r="Y58" s="1">
-        <v>1.587</v>
-      </c>
-      <c r="Z58" s="1">
-        <v>1.6094999999999999</v>
-      </c>
-      <c r="AC58">
-        <v>22400</v>
-      </c>
-      <c r="AD58" s="1">
-        <v>1.6912</v>
-      </c>
-      <c r="AE58" s="1">
-        <v>1.7145999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N59">
-        <v>14250</v>
-      </c>
-      <c r="O59" s="1">
-        <v>1.7035</v>
-      </c>
-      <c r="P59" s="1">
-        <v>1.7196</v>
-      </c>
-      <c r="S59">
-        <v>22800</v>
-      </c>
-      <c r="T59" s="1">
-        <v>1.6827000000000001</v>
-      </c>
-      <c r="U59" s="1">
-        <v>1.7022999999999999</v>
-      </c>
-      <c r="X59">
-        <v>57000</v>
-      </c>
-      <c r="Y59" s="1">
-        <v>1.5819000000000001</v>
-      </c>
-      <c r="Z59" s="1">
-        <v>1.5966</v>
-      </c>
-      <c r="AC59">
-        <v>22800</v>
-      </c>
-      <c r="AD59" s="1">
-        <v>1.6837</v>
-      </c>
-      <c r="AE59" s="1">
-        <v>1.7032</v>
-      </c>
-    </row>
-    <row r="60" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N60">
-        <v>14500</v>
-      </c>
-      <c r="O60" s="1">
-        <v>1.7036</v>
-      </c>
-      <c r="P60" s="2">
-        <v>1.7121</v>
-      </c>
-      <c r="S60">
-        <v>23200</v>
-      </c>
-      <c r="T60" s="1">
-        <v>1.6821999999999999</v>
-      </c>
-      <c r="U60" s="1">
-        <v>1.6977</v>
-      </c>
-      <c r="X60">
-        <v>58000</v>
-      </c>
-      <c r="Y60" s="1">
-        <v>1.5736000000000001</v>
-      </c>
-      <c r="Z60" s="1">
-        <v>1.6023000000000001</v>
-      </c>
-      <c r="AC60">
-        <v>23200</v>
-      </c>
-      <c r="AD60" s="1">
-        <v>1.6835</v>
-      </c>
-      <c r="AE60" s="1">
-        <v>1.6981999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N61">
-        <v>14750</v>
-      </c>
-      <c r="O61" s="1">
-        <v>1.7001999999999999</v>
-      </c>
-      <c r="P61" s="1">
-        <v>1.7166999999999999</v>
-      </c>
-      <c r="S61">
-        <v>23600</v>
-      </c>
-      <c r="T61" s="1">
-        <v>1.6797</v>
-      </c>
-      <c r="U61" s="1">
-        <v>1.6917</v>
-      </c>
-      <c r="X61">
-        <v>59000</v>
-      </c>
-      <c r="Y61" s="1">
-        <v>1.5734999999999999</v>
-      </c>
-      <c r="Z61" s="1">
-        <v>1.5946</v>
-      </c>
-      <c r="AC61">
-        <v>23600</v>
-      </c>
-      <c r="AD61" s="1">
-        <v>1.6798</v>
-      </c>
-      <c r="AE61" s="1">
-        <v>1.6916</v>
-      </c>
-    </row>
-    <row r="62" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="N62">
-        <v>15000</v>
-      </c>
-      <c r="O62" s="1">
-        <v>1.6938</v>
-      </c>
-      <c r="P62" s="1">
-        <v>1.7126999999999999</v>
-      </c>
-      <c r="S62">
-        <v>24000</v>
-      </c>
-      <c r="T62" s="1">
-        <v>1.6741999999999999</v>
-      </c>
-      <c r="U62" s="1">
-        <v>1.6964999999999999</v>
-      </c>
-      <c r="X62">
-        <v>60000</v>
-      </c>
-      <c r="Y62" s="1">
-        <v>1.5725</v>
-      </c>
-      <c r="Z62" s="1">
-        <v>1.5971</v>
-      </c>
-      <c r="AC62">
-        <v>24000</v>
-      </c>
-      <c r="AD62" s="1">
-        <v>1.6751</v>
-      </c>
-      <c r="AE62" s="1">
-        <v>1.6981999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="S63">
-        <v>24400</v>
-      </c>
-      <c r="T63" s="1">
-        <v>1.6737</v>
-      </c>
-      <c r="U63" s="1">
-        <v>1.6870000000000001</v>
-      </c>
-      <c r="X63">
-        <v>61000</v>
-      </c>
-      <c r="Y63" s="1">
-        <v>1.5677000000000001</v>
-      </c>
-      <c r="Z63" s="1">
-        <v>1.5839000000000001</v>
-      </c>
-      <c r="AC63">
-        <v>24400</v>
-      </c>
-      <c r="AD63" s="1">
-        <v>1.6760999999999999</v>
-      </c>
-      <c r="AE63" s="1">
-        <v>1.6887000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="14:31" x14ac:dyDescent="0.25">
-      <c r="S64">
-        <v>24800</v>
-      </c>
-      <c r="T64" s="1">
-        <v>1.6617999999999999</v>
-      </c>
-      <c r="U64" s="1">
-        <v>1.6906000000000001</v>
-      </c>
-      <c r="X64">
-        <v>62000</v>
-      </c>
-      <c r="Y64" s="1">
-        <v>1.5632999999999999</v>
-      </c>
-      <c r="Z64" s="1">
-        <v>1.5804</v>
-      </c>
-      <c r="AC64">
-        <v>24800</v>
-      </c>
-      <c r="AD64" s="1">
-        <v>1.6633</v>
-      </c>
-      <c r="AE64" s="1">
-        <v>1.6917</v>
-      </c>
-    </row>
-    <row r="65" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S65">
-        <v>25200</v>
-      </c>
-      <c r="T65" s="1">
-        <v>1.6667000000000001</v>
-      </c>
-      <c r="U65" s="1">
-        <v>1.6726000000000001</v>
-      </c>
-      <c r="X65">
-        <v>63000</v>
-      </c>
-      <c r="Y65" s="1">
-        <v>1.5524</v>
-      </c>
-      <c r="Z65" s="1">
-        <v>1.5872999999999999</v>
-      </c>
-      <c r="AC65">
-        <v>25200</v>
-      </c>
-      <c r="AD65" s="1">
-        <v>1.6689000000000001</v>
-      </c>
-      <c r="AE65" s="1">
-        <v>1.675</v>
-      </c>
-    </row>
-    <row r="66" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S66">
-        <v>25600</v>
-      </c>
-      <c r="T66" s="1">
-        <v>1.6534</v>
-      </c>
-      <c r="U66" s="1">
-        <v>1.6765000000000001</v>
-      </c>
-      <c r="X66">
-        <v>64000</v>
-      </c>
-      <c r="Y66" s="1">
-        <v>1.5508</v>
-      </c>
-      <c r="Z66" s="1">
-        <v>1.5855999999999999</v>
-      </c>
-      <c r="AC66">
-        <v>25600</v>
-      </c>
-      <c r="AD66" s="1">
-        <v>1.6560999999999999</v>
-      </c>
-      <c r="AE66" s="1">
-        <v>1.6797</v>
-      </c>
-    </row>
-    <row r="67" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S67">
-        <v>26000</v>
-      </c>
-      <c r="T67" s="1">
-        <v>1.6553</v>
-      </c>
-      <c r="U67" s="1">
-        <v>1.6698999999999999</v>
-      </c>
-      <c r="X67">
-        <v>65000</v>
-      </c>
-      <c r="Y67" s="1">
-        <v>1.5462</v>
-      </c>
-      <c r="Z67" s="1">
-        <v>1.5751999999999999</v>
-      </c>
-      <c r="AC67">
-        <v>26000</v>
-      </c>
-      <c r="AD67" s="1">
-        <v>1.6556999999999999</v>
-      </c>
-      <c r="AE67" s="1">
-        <v>1.6701999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S68">
-        <v>26400</v>
-      </c>
-      <c r="T68" s="1">
-        <v>1.6468</v>
-      </c>
-      <c r="U68" s="1">
-        <v>1.6680999999999999</v>
-      </c>
-      <c r="X68">
-        <v>66000</v>
-      </c>
-      <c r="Y68" s="1">
-        <v>1.5524</v>
-      </c>
-      <c r="Z68" s="1">
-        <v>1.5740000000000001</v>
-      </c>
-      <c r="AC68">
-        <v>26400</v>
-      </c>
-      <c r="AD68" s="1">
-        <v>1.6469</v>
-      </c>
-      <c r="AE68" s="1">
-        <v>1.6688000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S69">
-        <v>26800</v>
-      </c>
-      <c r="T69" s="1">
-        <v>1.6464000000000001</v>
-      </c>
-      <c r="U69" s="1">
-        <v>1.6722999999999999</v>
-      </c>
-      <c r="X69">
-        <v>67000</v>
-      </c>
-      <c r="Y69" s="1">
-        <v>1.5417000000000001</v>
-      </c>
-      <c r="Z69" s="1">
-        <v>1.5653999999999999</v>
-      </c>
-      <c r="AC69">
-        <v>26800</v>
-      </c>
-      <c r="AD69" s="1">
-        <v>1.6483000000000001</v>
-      </c>
-      <c r="AE69" s="1">
-        <v>1.6741999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S70">
-        <v>27200</v>
-      </c>
-      <c r="T70" s="1">
-        <v>1.6455</v>
-      </c>
-      <c r="U70" s="1">
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="X70">
-        <v>68000</v>
-      </c>
-      <c r="Y70" s="1">
-        <v>1.5422</v>
-      </c>
-      <c r="Z70" s="1">
-        <v>1.5696000000000001</v>
-      </c>
-      <c r="AC70">
-        <v>27200</v>
-      </c>
-      <c r="AD70" s="1">
-        <v>1.6456</v>
-      </c>
-      <c r="AE70" s="1">
-        <v>1.6644000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S71">
-        <v>27600</v>
-      </c>
-      <c r="T71" s="1">
-        <v>1.6536999999999999</v>
-      </c>
-      <c r="U71" s="1">
-        <v>1.6657999999999999</v>
-      </c>
-      <c r="X71">
-        <v>69000</v>
-      </c>
-      <c r="Y71" s="1">
-        <v>1.5308999999999999</v>
-      </c>
-      <c r="Z71" s="1">
-        <v>1.5613999999999999</v>
-      </c>
-      <c r="AC71">
-        <v>27600</v>
-      </c>
-      <c r="AD71" s="1">
-        <v>1.6536999999999999</v>
-      </c>
-      <c r="AE71" s="1">
-        <v>1.6657</v>
-      </c>
-    </row>
-    <row r="72" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S72">
-        <v>28000</v>
-      </c>
-      <c r="T72" s="1">
-        <v>1.6378999999999999</v>
-      </c>
-      <c r="U72" s="1">
-        <v>1.6532</v>
-      </c>
-      <c r="X72">
-        <v>70000</v>
-      </c>
-      <c r="Y72" s="1">
-        <v>1.5317000000000001</v>
-      </c>
-      <c r="Z72" s="1">
-        <v>1.5589999999999999</v>
-      </c>
-      <c r="AC72">
-        <v>28000</v>
-      </c>
-      <c r="AD72" s="1">
-        <v>1.6383000000000001</v>
-      </c>
-      <c r="AE72" s="1">
-        <v>1.6533</v>
-      </c>
-    </row>
-    <row r="73" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S73">
-        <v>28400</v>
-      </c>
-      <c r="T73" s="1">
-        <v>1.6343000000000001</v>
-      </c>
-      <c r="U73" s="1">
-        <v>1.6541999999999999</v>
-      </c>
-      <c r="X73">
-        <v>71000</v>
-      </c>
-      <c r="Y73" s="1">
-        <v>1.5381</v>
-      </c>
-      <c r="Z73" s="1">
-        <v>1.5530999999999999</v>
-      </c>
-      <c r="AC73">
-        <v>28400</v>
-      </c>
-      <c r="AD73" s="1">
-        <v>1.6534</v>
-      </c>
-      <c r="AE73" s="1">
-        <v>1.6557999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S74">
-        <v>28800</v>
-      </c>
-      <c r="T74" s="1">
-        <v>1.6351</v>
-      </c>
-      <c r="U74" s="1">
-        <v>1.6538999999999999</v>
-      </c>
-      <c r="X74">
-        <v>72000</v>
-      </c>
-      <c r="Y74" s="1">
-        <v>1.5278</v>
-      </c>
-      <c r="Z74" s="1">
-        <v>1.5533999999999999</v>
-      </c>
-      <c r="AC74">
-        <v>28800</v>
-      </c>
-      <c r="AD74" s="1">
-        <v>1.6364000000000001</v>
-      </c>
-      <c r="AE74" s="1">
-        <v>1.6559999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S75">
-        <v>29200</v>
-      </c>
-      <c r="T75" s="1">
-        <v>1.6297999999999999</v>
-      </c>
-      <c r="U75" s="1">
-        <v>1.6447000000000001</v>
-      </c>
-      <c r="X75">
-        <v>73000</v>
-      </c>
-      <c r="Y75" s="1">
-        <v>1.5266</v>
-      </c>
-      <c r="Z75" s="1">
-        <v>1.5488</v>
-      </c>
-      <c r="AC75">
-        <v>29200</v>
-      </c>
-      <c r="AD75" s="1">
-        <v>1.6291</v>
-      </c>
-      <c r="AE75" s="1">
-        <v>1.6455</v>
-      </c>
-    </row>
-    <row r="76" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S76">
-        <v>29600</v>
-      </c>
-      <c r="T76" s="1">
-        <v>1.6266</v>
-      </c>
-      <c r="U76" s="1">
-        <v>1.6424000000000001</v>
-      </c>
-      <c r="X76">
-        <v>74000</v>
-      </c>
-      <c r="Y76" s="1">
-        <v>1.5226999999999999</v>
-      </c>
-      <c r="Z76" s="1">
-        <v>1.544</v>
-      </c>
-      <c r="AC76">
-        <v>29600</v>
-      </c>
-      <c r="AD76" s="1">
-        <v>1.6283000000000001</v>
-      </c>
-      <c r="AE76" s="1">
-        <v>1.6448</v>
-      </c>
-    </row>
-    <row r="77" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S77">
-        <v>30000</v>
-      </c>
-      <c r="T77" s="1">
-        <v>1.6222000000000001</v>
-      </c>
-      <c r="U77" s="1">
-        <v>1.6383000000000001</v>
-      </c>
-      <c r="X77">
-        <v>75000</v>
-      </c>
-      <c r="Y77" s="1">
-        <v>1.5238</v>
-      </c>
-      <c r="Z77" s="1">
-        <v>1.5443</v>
-      </c>
-      <c r="AC77">
-        <v>30000</v>
-      </c>
-      <c r="AD77" s="1">
-        <v>1.6225000000000001</v>
-      </c>
-      <c r="AE77" s="1">
-        <v>1.6385000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S78">
-        <v>30400</v>
-      </c>
-      <c r="T78" s="1">
-        <v>1.6120000000000001</v>
-      </c>
-      <c r="U78" s="1">
-        <v>1.6338999999999999</v>
-      </c>
-      <c r="X78">
-        <v>76000</v>
-      </c>
-      <c r="Y78" s="1">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="Z78" s="1">
-        <v>1.5448999999999999</v>
-      </c>
-      <c r="AC78">
-        <v>30400</v>
-      </c>
-      <c r="AD78" s="1">
-        <v>1.6129</v>
-      </c>
-      <c r="AE78" s="1">
-        <v>1.6341000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S79">
-        <v>30800</v>
-      </c>
-      <c r="T79" s="1">
-        <v>1.6137999999999999</v>
-      </c>
-      <c r="U79" s="1">
-        <v>1.6352</v>
-      </c>
-      <c r="X79">
-        <v>77000</v>
-      </c>
-      <c r="Y79" s="1">
-        <v>1.5174000000000001</v>
-      </c>
-      <c r="Z79" s="1">
-        <v>1.5458000000000001</v>
-      </c>
-      <c r="AC79">
-        <v>30800</v>
-      </c>
-      <c r="AD79" s="1">
-        <v>1.6136999999999999</v>
-      </c>
-      <c r="AE79" s="1">
-        <v>1.6355</v>
-      </c>
-    </row>
-    <row r="80" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S80">
-        <v>31200</v>
-      </c>
-      <c r="T80" s="1">
-        <v>1.6173999999999999</v>
-      </c>
-      <c r="U80" s="1">
-        <v>1.6375</v>
-      </c>
-      <c r="X80">
-        <v>78000</v>
-      </c>
-      <c r="Y80" s="1">
-        <v>1.5109999999999999</v>
-      </c>
-      <c r="Z80" s="2">
-        <v>1.5398000000000001</v>
-      </c>
-      <c r="AC80">
-        <v>31200</v>
-      </c>
-      <c r="AD80" s="1">
-        <v>1.6182000000000001</v>
-      </c>
-      <c r="AE80" s="1">
-        <v>1.6386000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S81">
-        <v>31600</v>
-      </c>
-      <c r="T81" s="1">
-        <v>1.6074999999999999</v>
-      </c>
-      <c r="U81" s="1">
-        <v>1.6327</v>
-      </c>
-      <c r="X81">
-        <v>79000</v>
-      </c>
-      <c r="Y81" s="1">
-        <v>1.5152000000000001</v>
-      </c>
-      <c r="Z81" s="1">
-        <v>1.5418000000000001</v>
-      </c>
-      <c r="AC81">
-        <v>31600</v>
-      </c>
-      <c r="AD81" s="1">
-        <v>1.6082000000000001</v>
-      </c>
-      <c r="AE81" s="1">
-        <v>1.633</v>
-      </c>
-    </row>
-    <row r="82" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S82">
-        <v>32000</v>
-      </c>
-      <c r="T82" s="1">
-        <v>1.6145</v>
-      </c>
-      <c r="U82" s="1">
-        <v>1.6244000000000001</v>
-      </c>
-      <c r="X82">
-        <v>80000</v>
-      </c>
-      <c r="Y82" s="1">
-        <v>1.5188999999999999</v>
-      </c>
-      <c r="Z82" s="1">
-        <v>1.5456000000000001</v>
-      </c>
-      <c r="AC82">
-        <v>32000</v>
-      </c>
-      <c r="AD82" s="1">
-        <v>1.6145</v>
-      </c>
-      <c r="AE82" s="1">
-        <v>1.6243000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S83">
-        <v>32400</v>
-      </c>
-      <c r="T83" s="1">
-        <v>1.6062000000000001</v>
-      </c>
-      <c r="U83" s="1">
-        <v>1.6247</v>
-      </c>
-      <c r="AC83">
-        <v>32400</v>
-      </c>
-      <c r="AD83" s="1">
-        <v>1.6057999999999999</v>
-      </c>
-      <c r="AE83" s="1">
-        <v>1.6244000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S84">
-        <v>32800</v>
-      </c>
-      <c r="T84" s="1">
-        <v>1.5945</v>
-      </c>
-      <c r="U84" s="1">
-        <v>1.6233</v>
-      </c>
-      <c r="AC84">
-        <v>32800</v>
-      </c>
-      <c r="AD84" s="1">
-        <v>1.5952</v>
-      </c>
-      <c r="AE84" s="1">
-        <v>1.6234</v>
-      </c>
-    </row>
-    <row r="85" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S85">
-        <v>33200</v>
-      </c>
-      <c r="T85" s="1">
-        <v>1.5895999999999999</v>
-      </c>
-      <c r="U85" s="1">
-        <v>1.6174999999999999</v>
-      </c>
-      <c r="AC85">
-        <v>33200</v>
-      </c>
-      <c r="AD85" s="1">
-        <v>1.591</v>
-      </c>
-      <c r="AE85" s="1">
-        <v>1.619</v>
-      </c>
-    </row>
-    <row r="86" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S86">
-        <v>33600</v>
-      </c>
-      <c r="T86" s="1">
-        <v>1.5903</v>
-      </c>
-      <c r="U86" s="1">
-        <v>1.6163000000000001</v>
-      </c>
-      <c r="AC86">
-        <v>33600</v>
-      </c>
-      <c r="AD86" s="1">
-        <v>1.5903</v>
-      </c>
-      <c r="AE86" s="1">
-        <v>1.6166</v>
-      </c>
-    </row>
-    <row r="87" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S87">
-        <v>34000</v>
-      </c>
-      <c r="T87" s="1">
-        <v>1.5905</v>
-      </c>
-      <c r="U87" s="1">
-        <v>1.6166</v>
-      </c>
-      <c r="AC87">
-        <v>34000</v>
-      </c>
-      <c r="AD87" s="1">
-        <v>1.5918000000000001</v>
-      </c>
-      <c r="AE87" s="1">
-        <v>1.6183000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S88">
-        <v>34400</v>
-      </c>
-      <c r="T88" s="1">
-        <v>1.5839000000000001</v>
-      </c>
-      <c r="U88" s="1">
-        <v>1.6128</v>
-      </c>
-      <c r="AC88">
-        <v>34400</v>
-      </c>
-      <c r="AD88" s="1">
-        <v>1.5845</v>
-      </c>
-      <c r="AE88" s="1">
-        <v>1.6145</v>
-      </c>
-    </row>
-    <row r="89" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S89">
-        <v>34800</v>
-      </c>
-      <c r="T89" s="1">
-        <v>1.5845</v>
-      </c>
-      <c r="U89" s="1">
-        <v>1.6062000000000001</v>
-      </c>
-      <c r="AC89">
-        <v>34800</v>
-      </c>
-      <c r="AD89" s="1">
-        <v>1.5853999999999999</v>
-      </c>
-      <c r="AE89" s="1">
-        <v>1.6073999999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S90">
-        <v>35200</v>
-      </c>
-      <c r="T90" s="1">
-        <v>1.5838000000000001</v>
-      </c>
-      <c r="U90" s="1">
-        <v>1.6079000000000001</v>
-      </c>
-      <c r="AC90">
-        <v>35200</v>
-      </c>
-      <c r="AD90" s="1">
-        <v>1.5859000000000001</v>
-      </c>
-      <c r="AE90" s="1">
-        <v>1.6095999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S91">
-        <v>35600</v>
-      </c>
-      <c r="T91" s="1">
-        <v>1.5763</v>
-      </c>
-      <c r="U91" s="1">
-        <v>1.5978000000000001</v>
-      </c>
-      <c r="AC91">
-        <v>35600</v>
-      </c>
-      <c r="AD91" s="1">
-        <v>1.5759000000000001</v>
-      </c>
-      <c r="AE91" s="1">
-        <v>1.5982000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S92">
-        <v>36000</v>
-      </c>
-      <c r="T92" s="1">
-        <v>1.5787</v>
-      </c>
-      <c r="U92" s="1">
-        <v>1.6035999999999999</v>
-      </c>
-      <c r="AC92">
-        <v>36000</v>
-      </c>
-      <c r="AD92" s="1">
-        <v>1.5791999999999999</v>
-      </c>
-      <c r="AE92" s="1">
-        <v>1.6044</v>
-      </c>
-    </row>
-    <row r="93" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S93">
-        <v>36400</v>
-      </c>
-      <c r="T93" s="1">
-        <v>1.5828</v>
-      </c>
-      <c r="U93" s="1">
-        <v>1.6033999999999999</v>
-      </c>
-      <c r="AC93">
-        <v>36400</v>
-      </c>
-      <c r="AD93" s="1">
-        <v>1.5839000000000001</v>
-      </c>
-      <c r="AE93" s="1">
-        <v>1.6048</v>
-      </c>
-    </row>
-    <row r="94" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S94">
-        <v>36800</v>
-      </c>
-      <c r="T94" s="1">
-        <v>1.5742</v>
-      </c>
-      <c r="U94" s="1">
-        <v>1.5938000000000001</v>
-      </c>
-      <c r="AC94">
-        <v>36800</v>
-      </c>
-      <c r="AD94" s="1">
-        <v>1.5750999999999999</v>
-      </c>
-      <c r="AE94" s="1">
-        <v>1.5949</v>
-      </c>
-    </row>
-    <row r="95" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S95">
-        <v>37200</v>
-      </c>
-      <c r="T95" s="1">
-        <v>1.5803</v>
-      </c>
-      <c r="U95" s="1">
-        <v>1.5948</v>
-      </c>
-      <c r="AC95">
-        <v>37200</v>
-      </c>
-      <c r="AD95" s="1">
-        <v>1.5805</v>
-      </c>
-      <c r="AE95" s="1">
-        <v>1.5958000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S96">
-        <v>37600</v>
-      </c>
-      <c r="T96" s="1">
-        <v>1.5775999999999999</v>
-      </c>
-      <c r="U96" s="1">
-        <v>1.593</v>
-      </c>
-      <c r="AC96">
-        <v>37600</v>
-      </c>
-      <c r="AD96" s="1">
-        <v>1.5788</v>
-      </c>
-      <c r="AE96" s="1">
-        <v>1.5933999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S97">
-        <v>38000</v>
-      </c>
-      <c r="T97" s="1">
-        <v>1.5685</v>
-      </c>
-      <c r="U97" s="2">
-        <v>1.5871</v>
-      </c>
-      <c r="AC97">
-        <v>38000</v>
-      </c>
-      <c r="AD97" s="1">
-        <v>1.5699000000000001</v>
-      </c>
-      <c r="AE97" s="2">
-        <v>1.5888</v>
-      </c>
-    </row>
-    <row r="98" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S98">
-        <v>38400</v>
-      </c>
-      <c r="T98" s="1">
-        <v>1.5795999999999999</v>
-      </c>
-      <c r="U98" s="1">
-        <v>1.5949</v>
-      </c>
-      <c r="AC98">
-        <v>38400</v>
-      </c>
-      <c r="AD98" s="1">
-        <v>1.581</v>
-      </c>
-      <c r="AE98" s="1">
-        <v>1.5955999999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S99">
-        <v>38800</v>
-      </c>
-      <c r="T99" s="1">
-        <v>1.5728</v>
-      </c>
-      <c r="U99" s="1">
-        <v>1.5913999999999999</v>
-      </c>
-      <c r="AC99">
-        <v>38800</v>
-      </c>
-      <c r="AD99" s="1">
-        <v>1.5742</v>
-      </c>
-      <c r="AE99" s="1">
-        <v>1.5931</v>
-      </c>
-    </row>
-    <row r="100" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S100">
-        <v>39200</v>
-      </c>
-      <c r="T100" s="1">
-        <v>1.5676000000000001</v>
-      </c>
-      <c r="U100" s="1">
-        <v>1.59</v>
-      </c>
-      <c r="AC100">
-        <v>39200</v>
-      </c>
-      <c r="AD100" s="1">
-        <v>1.5692999999999999</v>
-      </c>
-      <c r="AE100" s="1">
-        <v>1.5907</v>
-      </c>
-    </row>
-    <row r="101" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S101">
-        <v>39600</v>
-      </c>
-      <c r="T101" s="1">
-        <v>1.5653999999999999</v>
-      </c>
-      <c r="U101" s="1">
-        <v>1.5891999999999999</v>
-      </c>
-      <c r="AC101">
-        <v>39600</v>
-      </c>
-      <c r="AD101" s="1">
-        <v>1.5667</v>
-      </c>
-      <c r="AE101" s="1">
-        <v>1.5904</v>
-      </c>
-    </row>
-    <row r="102" spans="19:31" x14ac:dyDescent="0.25">
-      <c r="S102">
-        <v>40000</v>
-      </c>
-      <c r="T102" s="1">
-        <v>1.5741000000000001</v>
-      </c>
-      <c r="U102" s="1">
-        <v>1.5902000000000001</v>
-      </c>
-      <c r="AC102">
-        <v>40000</v>
-      </c>
-      <c r="AD102" s="1">
+      <c r="F104" s="1">
         <v>1.5748</v>
       </c>
-      <c r="AE102" s="1">
+      <c r="G104" s="1">
         <v>1.5911</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/loss.xlsx
+++ b/loss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NanoGPT_mss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C546BA-AEBD-4B1C-BEB5-7DA9FD21AF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1152B00E-3CC3-4D36-9139-47B0CFCC2000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,11 +148,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6552,38 +6552,38 @@
   <dimension ref="A2:P104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S106" sqref="S106"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" customWidth="1"/>
-    <col min="13" max="14" width="6.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="14" width="6.5546875" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6642,7 +6642,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>250</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>2.5728</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>2.2709999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>750</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>2.1486000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>2.0697000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1250</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>2.0158999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1500</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>1.9737</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1750</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>1.9381999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>1.9220999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2250</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>1.9033</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2500</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>1.8795999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2750</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>1.8649</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3000</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>1.8498000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3250</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>1.8461000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3500</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>1.8254999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3750</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>1.8298000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4000</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>1.8127</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4250</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>1.8022</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4500</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>1.8007</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4750</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>1.7861</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5000</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>1.7864</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5250</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>1.7785</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5500</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>1.7726999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5750</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>1.7688999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6000</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>1.7607999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6250</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>1.7486999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6500</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>1.7508999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6750</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>1.7468999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7000</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>1.7333000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7250</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>1.7383</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7500</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>1.7267999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7750</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>1.7239</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8000</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>1.7231000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8250</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>1.7146999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8500</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>1.7195</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8750</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>1.7043999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9000</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>1.6911</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9250</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>1.6940999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9500</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>1.6946000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9750</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>1.6832</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10000</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>1.6773</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10250</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>1.6773</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10500</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>1.6720999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10750</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>1.6624000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11000</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>1.6631</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11250</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>1.6581999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11500</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>11750</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>1.6503000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12000</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>1.6477999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12250</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>1.6392</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12500</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>1.6325000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>12750</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>1.6353</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>13000</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>1.6284000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>13250</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>1.6212</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>13500</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>1.6221000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>13750</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>1.6155999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>14000</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>1.6094999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14250</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>1.5966</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14500</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>1.6023000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>14750</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>1.5946</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>15000</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>1.5971</v>
       </c>
     </row>
-    <row r="65" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E65">
         <v>24400</v>
       </c>
@@ -8401,15 +8401,15 @@
       <c r="K65" s="1">
         <v>1.5839000000000001</v>
       </c>
-      <c r="M65" s="4" t="s">
+      <c r="M65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N65" s="5"/>
+      <c r="N65" s="4"/>
       <c r="O65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E66">
         <v>24800</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>1.5804</v>
       </c>
     </row>
-    <row r="67" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E67">
         <v>25200</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>1.5872999999999999</v>
       </c>
     </row>
-    <row r="68" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E68">
         <v>25600</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>1.5855999999999999</v>
       </c>
     </row>
-    <row r="69" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E69">
         <v>26000</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>1.5751999999999999</v>
       </c>
     </row>
-    <row r="70" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E70">
         <v>26400</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>1.5740000000000001</v>
       </c>
     </row>
-    <row r="71" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E71">
         <v>26800</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>1.5653999999999999</v>
       </c>
     </row>
-    <row r="72" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E72">
         <v>27200</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>1.5696000000000001</v>
       </c>
     </row>
-    <row r="73" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E73">
         <v>27600</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>1.5613999999999999</v>
       </c>
     </row>
-    <row r="74" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E74">
         <v>28000</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>1.5589999999999999</v>
       </c>
     </row>
-    <row r="75" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E75">
         <v>28400</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>1.5530999999999999</v>
       </c>
     </row>
-    <row r="76" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E76">
         <v>28800</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>1.5533999999999999</v>
       </c>
     </row>
-    <row r="77" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E77">
         <v>29200</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>1.5488</v>
       </c>
     </row>
-    <row r="78" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E78">
         <v>29600</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>1.544</v>
       </c>
     </row>
-    <row r="79" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E79">
         <v>30000</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>1.5443</v>
       </c>
     </row>
-    <row r="80" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E80">
         <v>30400</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>1.5448999999999999</v>
       </c>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E81">
         <v>30800</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>1.5458000000000001</v>
       </c>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E82">
         <v>31200</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>1.5398000000000001</v>
       </c>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E83">
         <v>31600</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>1.5418000000000001</v>
       </c>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E84">
         <v>32000</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>1.5456000000000001</v>
       </c>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E85">
         <v>32400</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>1.6244000000000001</v>
       </c>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E86">
         <v>32800</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>1.6234</v>
       </c>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E87">
         <v>33200</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>1.619</v>
       </c>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E88">
         <v>33600</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>1.6166</v>
       </c>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E89">
         <v>34000</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>1.6183000000000001</v>
       </c>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E90">
         <v>34400</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>1.6145</v>
       </c>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E91">
         <v>34800</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>1.6073999999999999</v>
       </c>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E92">
         <v>35200</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>1.6095999999999999</v>
       </c>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E93">
         <v>35600</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>1.5982000000000001</v>
       </c>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E94">
         <v>36000</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>1.6044</v>
       </c>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E95">
         <v>36400</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>1.6048</v>
       </c>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E96">
         <v>36800</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>1.5949</v>
       </c>
     </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E97">
         <v>37200</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>1.5958000000000001</v>
       </c>
     </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E98">
         <v>37600</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>1.5933999999999999</v>
       </c>
     </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E99">
         <v>38000</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>1.5888</v>
       </c>
     </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E100">
         <v>38400</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>1.5955999999999999</v>
       </c>
     </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E101">
         <v>38800</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>1.5931</v>
       </c>
     </row>
-    <row r="102" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E102">
         <v>39200</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>1.5907</v>
       </c>
     </row>
-    <row r="103" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E103">
         <v>39600</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>1.5904</v>
       </c>
     </row>
-    <row r="104" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E104">
         <v>40000</v>
       </c>

--- a/loss.xlsx
+++ b/loss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NanoGPT_mss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1152B00E-3CC3-4D36-9139-47B0CFCC2000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A336E528-C557-4662-8A5D-E29AA0EC4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1108,7 +1108,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>interation</a:t>
+                  <a:t>iteration</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -2793,7 +2793,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>interation</a:t>
+                  <a:t>iteration</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -4238,7 +4238,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>interation</a:t>
+                  <a:t>iteration</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -6551,8 +6551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
